--- a/dhan_excel/DhanTrading_v3.xlsx
+++ b/dhan_excel/DhanTrading_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Harvest FinCrop\Algo Trading\dhan_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E286C9-22BD-4462-BC24-7EB837FBAA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B7AB9-63C3-4EC4-8988-DC5A752FCE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F6F1494-9B09-4F57-8AEB-2BA84EF373A6}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="OptionsLookUp" sheetId="2" r:id="rId3"/>
     <sheet name="IndexLookup" sheetId="3" r:id="rId4"/>
     <sheet name="Orders" sheetId="4" r:id="rId5"/>
+    <sheet name="Charges" sheetId="7" r:id="rId6"/>
+    <sheet name="Brokerage Charges" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OptionsLookUp!$A$1:$B$1257</definedName>
@@ -137,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="1599">
   <si>
     <t>Instrument</t>
   </si>
@@ -4849,26 +4851,103 @@
     <t>Capital Allocation in %</t>
   </si>
   <si>
-    <t>NIFTY PE</t>
-  </si>
-  <si>
     <t>NIFTY_CE_30650</t>
   </si>
   <si>
     <t>NIFTY_PE_30650</t>
   </si>
   <si>
-    <t>NIFTY-Sep2025-25200-PE</t>
+    <t>Trade Cost</t>
+  </si>
+  <si>
+    <t>₹ 20 per executed order</t>
+  </si>
+  <si>
+    <t>Transaction charges</t>
+  </si>
+  <si>
+    <t>NSE: 0.03503% (on premium)</t>
+  </si>
+  <si>
+    <t>SEBI Turnover fees</t>
+  </si>
+  <si>
+    <t>0.0001% of the turnover</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPFT Contribution	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0.0005% of the turnover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamp Duty	</t>
+  </si>
+  <si>
+    <t>0.003% on turnover of buy orders</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securities Transaction Tax (STT)	</t>
+  </si>
+  <si>
+    <t>0.1% on sell side (on premium)</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>18% on brokerage + transaction charges + SEBI Turnover + IPFT/Other Tax</t>
+  </si>
+  <si>
+    <t>P/L</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Net PL</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>NIFTY-Sep2025-25050-PE</t>
+  </si>
+  <si>
+    <t>NIFTY-Sep2025-25100-PE</t>
+  </si>
+  <si>
+    <t>NIFTY CE</t>
+  </si>
+  <si>
+    <t>NIFTY-Sep2025-25200-CE</t>
+  </si>
+  <si>
+    <t>Loss Multiplier Trigger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4912,8 +4991,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4938,6 +5033,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4952,7 +5065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4983,10 +5096,30 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4994,7 +5127,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5308,8 +5462,8 @@
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <pane xSplit="12" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5320,6 +5474,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" hidden="1" customWidth="1"/>
@@ -5338,41 +5493,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="E1" s="25" t="str">
+      <c r="B1" s="32"/>
+      <c r="E1" s="33" t="str">
         <f>B24</f>
-        <v>PE</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="str">
+        <v>CE</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="str">
         <f>SIDE</f>
         <v>OTM</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34">
+        <f>Charges!H1</f>
+        <v>-4233.9525139650004</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35">
+        <f>Charges!K1</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+        <v>1596</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25309.4</v>
+        <v>25217.25</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -5606,21 +5773,21 @@
       </c>
       <c r="E6" s="9">
         <f>$B$3-MOD($B$3,$B$4)</f>
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="F6" s="9" t="str">
         <f>$B$22&amp;"_"&amp;E6</f>
-        <v>NIFTY_PE_25300</v>
+        <v>NIFTY_CE_25200</v>
       </c>
       <c r="G6" s="9">
         <f>VLOOKUP(F6,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47762</v>
+        <v>47757</v>
       </c>
       <c r="H6" s="9">
-        <v>63.65</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f>IF(I6&lt;&gt;"",ROUNDDOWN($B$7*(IF(AND(I6&gt;0,I6&lt;10),I6/10,1))/H6/$B$5,0)*$B$27,"")</f>
+        <v>37</v>
+      </c>
+      <c r="J6" s="31" t="str">
+        <f t="shared" ref="J6:J16" si="0">IF(I6&lt;&gt;"",ROUNDDOWN((CAPITAL*(I6/100))/(H6*$B$5),0)*$B$27,"")</f>
         <v/>
       </c>
       <c r="K6" s="10" t="b">
@@ -5631,7 +5798,7 @@
         <v/>
       </c>
       <c r="S6" s="3" t="str">
-        <f t="shared" ref="S6:S7" si="0">IF(O6&lt;&gt;"",IF($B$11="No",(O6+(O6*$B$19))-MOD(O6+(O6*$B$19),0.05),AK6),"")</f>
+        <f t="shared" ref="S6:S7" si="1">IF(O6&lt;&gt;"",IF($B$11="No",(O6+(O6*$B$19))-MOD(O6+(O6*$B$19),0.05),AK6),"")</f>
         <v/>
       </c>
       <c r="W6" s="3" t="str">
@@ -5639,15 +5806,15 @@
         <v/>
       </c>
       <c r="X6" s="3" t="str">
-        <f t="shared" ref="X6:X7" si="1">IF(O6&lt;&gt;"",(O6+(O6*$B$17))-MOD(O6+(O6*$B$17),0.05),"")</f>
+        <f t="shared" ref="X6:X7" si="2">IF(O6&lt;&gt;"",(O6+(O6*$B$17))-MOD(O6+(O6*$B$17),0.05),"")</f>
         <v/>
       </c>
       <c r="Y6" s="3" t="str">
-        <f t="shared" ref="Y6:Y7" si="2">IF(O6&lt;&gt;"",(O6-(O6*$B$18))-MOD((O6-(O6*$B$18)),0.05),"")</f>
+        <f t="shared" ref="Y6:Y7" si="3">IF(O6&lt;&gt;"",(O6-(O6*$B$18))-MOD((O6-(O6*$B$18)),0.05),"")</f>
         <v/>
       </c>
       <c r="AA6" s="3" t="str">
-        <f t="shared" ref="AA6:AA7" si="3">IF(O6&lt;&gt;"",40,"")</f>
+        <f t="shared" ref="AA6:AA7" si="4">IF(O6&lt;&gt;"",40,"")</f>
         <v/>
       </c>
       <c r="AB6" s="3" t="str">
@@ -5671,11 +5838,11 @@
         <v/>
       </c>
       <c r="AG6" s="3" t="str">
-        <f t="shared" ref="AG6:AG7" si="4">IF(O6&lt;&gt;"",(AA6+AB6+AE6)*0.18,"")</f>
+        <f t="shared" ref="AG6:AG7" si="5">IF(O6&lt;&gt;"",(AA6+AB6+AE6)*0.18,"")</f>
         <v/>
       </c>
       <c r="AH6" s="3" t="str">
-        <f t="shared" ref="AH6:AH7" si="5">IF(O6&lt;&gt;"",SUM(AA6:AG6),"")</f>
+        <f t="shared" ref="AH6:AH7" si="6">IF(O6&lt;&gt;"",SUM(AA6:AG6),"")</f>
         <v/>
       </c>
       <c r="AI6" s="3" t="str">
@@ -5696,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8974.8700000000008</v>
+        <v>8509.81</v>
       </c>
       <c r="D7" t="str">
         <f xml:space="preserve"> $D$5&amp;"-1"</f>
@@ -5707,30 +5874,36 @@
         <v>25250</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F16" si="6">$B$22&amp;"_"&amp;E7</f>
-        <v>NIFTY_PE_25250</v>
+        <f t="shared" ref="F7:F16" si="7">$B$22&amp;"_"&amp;E7</f>
+        <v>NIFTY_CE_25250</v>
       </c>
       <c r="G7">
         <f>VLOOKUP(F7,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47760</v>
+        <v>47759</v>
       </c>
       <c r="H7">
-        <v>45.9</v>
+        <v>12.65</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="3" t="str">
-        <f>IF(I7&lt;&gt;"",ROUNDDOWN($B$7*(IF(AND(I7&gt;0,I7&lt;10),I7/10,1))/H7/$B$5,0)*$B$27,"")</f>
+      <c r="J7" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" ref="L7:L16" si="7">IF(O7&lt;&gt;"",($H7-O7)*(Z7*$B$5)/$B$27,"")</f>
-        <v/>
+        <f t="shared" ref="L7:L16" si="8">IF(O7&lt;&gt;"",($H7-O7)*(Z7*$B$5)/$B$27,"")</f>
+        <v/>
+      </c>
+      <c r="M7">
+        <v>312250923690702</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1593</v>
       </c>
       <c r="S7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W7" s="3" t="str">
@@ -5738,51 +5911,51 @@
         <v/>
       </c>
       <c r="X7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB7" s="3" t="str">
-        <f t="shared" ref="AB7:AB16" si="8">IF(O7&lt;&gt;"",((O7+((O7*$B$8)+O7))*Z7)*(0.0003503),"")</f>
+        <f t="shared" ref="AB7:AB16" si="9">IF(O7&lt;&gt;"",((O7+((O7*$B$8)+O7))*Z7)*(0.0003503),"")</f>
         <v/>
       </c>
       <c r="AC7" s="3" t="str">
-        <f t="shared" ref="AC7:AC16" si="9">IF(O7&lt;&gt;"",(O7*Z7*0.00003),"")</f>
+        <f t="shared" ref="AC7:AC16" si="10">IF(O7&lt;&gt;"",(O7*Z7*0.00003),"")</f>
         <v/>
       </c>
       <c r="AD7" s="3" t="str">
-        <f t="shared" ref="AD7:AD16" si="10">IF(O7&lt;&gt;"",(O7+(O7*$B$8))*Z7*0.001,"")</f>
+        <f t="shared" ref="AD7:AD16" si="11">IF(O7&lt;&gt;"",(O7+(O7*$B$8))*Z7*0.001,"")</f>
         <v/>
       </c>
       <c r="AE7" s="3" t="str">
-        <f t="shared" ref="AE7:AE16" si="11">IF(O7&lt;&gt;"",(O7+(O7+(O7*$B$8)))*Z7*0.000001,"")</f>
+        <f t="shared" ref="AE7:AE16" si="12">IF(O7&lt;&gt;"",(O7+(O7+(O7*$B$8)))*Z7*0.000001,"")</f>
         <v/>
       </c>
       <c r="AF7" s="3" t="str">
-        <f t="shared" ref="AF7:AF16" si="12">IF(O7&lt;&gt;"",(O7+(O7+(O7*$B$8)))*Z7*0.000005,"")</f>
+        <f t="shared" ref="AF7:AF16" si="13">IF(O7&lt;&gt;"",(O7+(O7+(O7*$B$8)))*Z7*0.000005,"")</f>
         <v/>
       </c>
       <c r="AG7" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AH7" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AI7" s="3" t="str">
-        <f t="shared" ref="AI7:AI16" si="13">IF(O7&lt;&gt;"",(AH7/Z7)+O7,"")</f>
+        <f t="shared" ref="AI7:AI16" si="14">IF(O7&lt;&gt;"",(AH7/Z7)+O7,"")</f>
         <v/>
       </c>
       <c r="AJ7" s="3" t="str">
-        <f t="shared" ref="AJ7:AJ9" si="14">IF(O7&lt;&gt;"",O7+(O7*B9),"")</f>
+        <f t="shared" ref="AJ7:AJ9" si="15">IF(O7&lt;&gt;"",O7+(O7*B9),"")</f>
         <v/>
       </c>
       <c r="AK7" s="3" t="str">
@@ -5802,30 +5975,30 @@
         <v>OTM-2</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" ref="E8:E15" si="15">IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D8,1)),$E$6-($B$4*RIGHT(D8,1))),IF($B$24="PE",$E$6-($B$4*RIGHT(D8,1)),$E$6+($B$4*RIGHT(D8,1))))</f>
-        <v>25200</v>
+        <f t="shared" ref="E8:E15" si="16">IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D8,1)),$E$6-($B$4*RIGHT(D8,1))),IF($B$24="PE",$E$6-($B$4*RIGHT(D8,1)),$E$6+($B$4*RIGHT(D8,1))))</f>
+        <v>25300</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_25200</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25300</v>
       </c>
       <c r="G8">
         <f>VLOOKUP(F8,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47758</v>
+        <v>47761</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>3.4</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="3" t="str">
-        <f t="shared" ref="J8:J16" si="16">IF(I8&lt;&gt;"",ROUNDDOWN($B$7*(IF(AND(I8&gt;0,I8&lt;10),I8/10,1))/H8/$B$5,0)*$B$27,"")</f>
+      <c r="J8" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K8" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S8" s="3" t="str">
@@ -5849,23 +6022,23 @@
         <v/>
       </c>
       <c r="AB8" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC8" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD8" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE8" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF8" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG8" s="3" t="str">
@@ -5877,11 +6050,11 @@
         <v/>
       </c>
       <c r="AI8" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ8" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK8" s="3" t="str">
@@ -5894,37 +6067,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D9" s="10" t="str">
         <f>$D$5&amp;"-3"</f>
         <v>OTM-3</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="15"/>
-        <v>25150</v>
+        <f t="shared" si="16"/>
+        <v>25350</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_25150</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25350</v>
       </c>
       <c r="G9">
         <f>VLOOKUP(F9,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47756</v>
+        <v>47763</v>
       </c>
       <c r="H9">
-        <v>23.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J9" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S9" s="3" t="str">
@@ -5948,23 +6121,23 @@
         <v/>
       </c>
       <c r="AB9" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC9" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD9" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE9" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF9" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG9" s="3" t="str">
@@ -5976,11 +6149,11 @@
         <v/>
       </c>
       <c r="AI9" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ9" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK9" s="3" t="str">
@@ -5994,37 +6167,37 @@
       </c>
       <c r="B10" s="2">
         <f>B8-B9</f>
-        <v>1.0000000000000002E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="D10" s="10" t="str">
         <f>$D$5&amp;"-4"</f>
         <v>OTM-4</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="15"/>
-        <v>25100</v>
+        <f t="shared" si="16"/>
+        <v>25400</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_25100</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25400</v>
       </c>
       <c r="G10" s="10">
         <f>VLOOKUP(F10,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47754</v>
+        <v>47765</v>
       </c>
       <c r="H10" s="10">
-        <v>17.25</v>
+        <v>0.6</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J10" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S10" s="3" t="str">
@@ -6048,23 +6221,23 @@
         <v/>
       </c>
       <c r="AB10" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC10" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD10" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE10" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF10" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG10" s="3" t="str">
@@ -6076,7 +6249,7 @@
         <v/>
       </c>
       <c r="AI10" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ10" s="3" t="str">
@@ -6100,30 +6273,30 @@
         <v>OTM-5</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="15"/>
-        <v>25050</v>
+        <f t="shared" si="16"/>
+        <v>25450</v>
       </c>
       <c r="F11" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_25050</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25450</v>
       </c>
       <c r="G11" s="10">
         <f>VLOOKUP(F11,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47752</v>
+        <v>47773</v>
       </c>
       <c r="H11" s="10">
-        <v>12.65</v>
+        <v>0.35</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J11" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K11" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S11" s="3" t="str">
@@ -6147,23 +6320,23 @@
         <v/>
       </c>
       <c r="AB11" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC11" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD11" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE11" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF11" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG11" s="3" t="str">
@@ -6175,7 +6348,7 @@
         <v/>
       </c>
       <c r="AI11" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ11" s="3" t="str">
@@ -6196,30 +6369,30 @@
         <v>OTM-6</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="15"/>
-        <v>25000</v>
+        <f t="shared" si="16"/>
+        <v>25500</v>
       </c>
       <c r="F12" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_25000</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25500</v>
       </c>
       <c r="G12" s="10">
         <f>VLOOKUP(F12,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47734</v>
+        <v>47777</v>
       </c>
       <c r="H12" s="10">
-        <v>9.8000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J12" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K12" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S12" s="3" t="str">
@@ -6243,23 +6416,23 @@
         <v/>
       </c>
       <c r="AB12" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC12" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD12" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE12" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF12" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG12" s="3" t="str">
@@ -6271,7 +6444,7 @@
         <v/>
       </c>
       <c r="AI12" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ12" s="3" t="str">
@@ -6295,30 +6468,30 @@
         <v>OTM-7</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="15"/>
-        <v>24950</v>
+        <f t="shared" si="16"/>
+        <v>25550</v>
       </c>
       <c r="F13" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_24950</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25550</v>
       </c>
       <c r="G13" s="10">
         <f>VLOOKUP(F13,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47724</v>
+        <v>47779</v>
       </c>
       <c r="H13" s="10">
-        <v>7.35</v>
+        <v>0.25</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J13" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R13" s="8"/>
@@ -6343,23 +6516,23 @@
         <v/>
       </c>
       <c r="AB13" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC13" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD13" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE13" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF13" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG13" s="3" t="str">
@@ -6371,7 +6544,7 @@
         <v/>
       </c>
       <c r="AI13" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ13" s="3" t="str">
@@ -6385,40 +6558,40 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>1598</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="10" t="str">
         <f>$D$5&amp;"-8"</f>
         <v>OTM-8</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="15"/>
-        <v>24900</v>
+        <f t="shared" si="16"/>
+        <v>25600</v>
       </c>
       <c r="F14" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_24900</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25600</v>
       </c>
       <c r="G14" s="10">
         <f>VLOOKUP(F14,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47718</v>
+        <v>47781</v>
       </c>
       <c r="H14" s="10">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J14" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R14" s="8"/>
@@ -6443,23 +6616,23 @@
         <v/>
       </c>
       <c r="AB14" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC14" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD14" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE14" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF14" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG14" s="3" t="str">
@@ -6471,7 +6644,7 @@
         <v/>
       </c>
       <c r="AI14" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ14" s="3" t="str">
@@ -6484,35 +6657,41 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
       <c r="D15" s="10" t="str">
         <f>$D$5&amp;"-9"</f>
         <v>OTM-9</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="15"/>
-        <v>24850</v>
+        <f t="shared" si="16"/>
+        <v>25650</v>
       </c>
       <c r="F15" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_24850</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25650</v>
       </c>
       <c r="G15" s="10">
         <f>VLOOKUP(F15,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47712</v>
+        <v>47787</v>
       </c>
       <c r="H15" s="10">
-        <v>4.95</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J15" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R15" s="8"/>
@@ -6537,23 +6716,23 @@
         <v/>
       </c>
       <c r="AB15" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC15" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD15" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE15" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF15" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG15" s="3" t="str">
@@ -6565,7 +6744,7 @@
         <v/>
       </c>
       <c r="AI15" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ15" s="3" t="str">
@@ -6587,29 +6766,29 @@
       </c>
       <c r="E16" s="10">
         <f>IF($D$5="ITM",IF($B$24="PE",$E$6+($B$4*RIGHT(D16,2)),$E$6-($B$4*RIGHT(D16,2))),IF($B$24="PE",$E$6-($B$4*RIGHT(D16,2)),$E$6+($B$4*RIGHT(D16,2))))</f>
-        <v>24800</v>
+        <v>25700</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>NIFTY_PE_24800</v>
+        <f t="shared" si="7"/>
+        <v>NIFTY_CE_25700</v>
       </c>
       <c r="G16" s="10">
         <f>VLOOKUP(F16,OptionsLookUp!A:B,2,FALSE)</f>
-        <v>47704</v>
+        <v>47793</v>
       </c>
       <c r="H16" s="10">
-        <v>4.25</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="J16" s="31" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R16" s="8"/>
@@ -6634,23 +6813,23 @@
         <v/>
       </c>
       <c r="AB16" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC16" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD16" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE16" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF16" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AG16" s="3" t="str">
@@ -6662,7 +6841,7 @@
         <v/>
       </c>
       <c r="AI16" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AJ16" s="3" t="str">
@@ -6680,7 +6859,7 @@
       </c>
       <c r="B17">
         <f>B13*B10</f>
-        <v>1.0000000000000002E-2</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -6690,7 +6869,7 @@
       </c>
       <c r="B18">
         <f>B14*B10</f>
-        <v>3.0000000000000006E-2</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1569</v>
@@ -6736,7 +6915,7 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <f>B14*B8</f>
+        <f>B15*B8</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="D20" s="4" t="str">
@@ -6749,11 +6928,11 @@
       </c>
       <c r="F20" s="22">
         <f t="shared" ref="F20:F30" si="35">ROUNDDOWN((CAPITAL*($F$19/100))/($H6*$B$5),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G30" si="36">ROUNDDOWN((CAPITAL*($G$19/100))/($H6*$B$5),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" ref="H20:H30" si="37">ROUNDDOWN((CAPITAL*($H$19/100))/($H6*$B$5),0)</f>
@@ -6761,19 +6940,19 @@
       </c>
       <c r="I20" s="22">
         <f t="shared" ref="I20:I30" si="38">ROUNDDOWN((CAPITAL*($I$19/100))/($H6*$B$5),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="22">
         <f t="shared" ref="J20:J30" si="39">ROUNDDOWN((CAPITAL*($J$19/100))/($H6*$B$5),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="22">
         <f t="shared" ref="K20:K30" si="40">ROUNDDOWN((CAPITAL*($K$19/100))/($H6*$B$5),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" ref="L20:L30" si="41">ROUNDDOWN((CAPITAL*($L$19/100))/($H6*$B$5),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" s="8"/>
     </row>
@@ -6784,35 +6963,35 @@
       </c>
       <c r="E21" s="22">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R21" s="8"/>
     </row>
@@ -6822,7 +7001,7 @@
       </c>
       <c r="B22" t="str">
         <f>B23&amp;"_"&amp;B24</f>
-        <v>NIFTY_PE</v>
+        <v>NIFTY_CE</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="42"/>
@@ -6830,35 +7009,35 @@
       </c>
       <c r="E22" s="22">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -6876,35 +7055,35 @@
       </c>
       <c r="E23" s="22">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -6914,7 +7093,7 @@
       </c>
       <c r="B24" t="str">
         <f>RIGHT(B2,2)</f>
-        <v>PE</v>
+        <v>CE</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="42"/>
@@ -6922,35 +7101,35 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="38"/>
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="40"/>
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="41"/>
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -6967,35 +7146,35 @@
       </c>
       <c r="E25" s="22">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="40"/>
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="41"/>
-        <v>9</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -7005,35 +7184,35 @@
       </c>
       <c r="E26" s="22">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="37"/>
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="39"/>
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -7050,35 +7229,35 @@
       </c>
       <c r="E27" s="22">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="38"/>
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="39"/>
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="40"/>
-        <v>14</v>
+        <v>408</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="41"/>
-        <v>16</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -7088,35 +7267,35 @@
       </c>
       <c r="E28" s="22">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="35"/>
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="36"/>
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="38"/>
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="39"/>
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="40"/>
-        <v>18</v>
+        <v>510</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="41"/>
-        <v>20</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -7132,35 +7311,35 @@
       </c>
       <c r="E29" s="22">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="F29" s="22">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="36"/>
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="37"/>
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="38"/>
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="J29" s="22">
         <f t="shared" si="39"/>
-        <v>19</v>
+        <v>453</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="40"/>
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="41"/>
-        <v>24</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -7170,36 +7349,38 @@
       </c>
       <c r="E30" s="22">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="F30" s="22">
         <f t="shared" si="35"/>
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="36"/>
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="37"/>
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="I30" s="22">
         <f t="shared" si="38"/>
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="J30" s="22">
         <f t="shared" si="39"/>
-        <v>22</v>
+        <v>453</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="40"/>
-        <v>25</v>
+        <v>510</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="41"/>
-        <v>28</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
       <c r="AG30" s="21"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -7235,12 +7416,14 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="w/1k8NAfu4gphjRDZmJFygFQ7tt+yhV+erpiS8OCQ60FJQIj0WhlJ8mNePwcqY+MY/s9OtBBrBoNscJVc+imjw==" saltValue="zoCbafLlwuNM28lL5rQV9g==" spinCount="100000" sqref="J6:J16 S6:S16 W6:Y16 L6:L16" name="FormulaRanges"/>
+    <protectedRange algorithmName="SHA-512" hashValue="w/1k8NAfu4gphjRDZmJFygFQ7tt+yhV+erpiS8OCQ60FJQIj0WhlJ8mNePwcqY+MY/s9OtBBrBoNscJVc+imjw==" saltValue="zoCbafLlwuNM28lL5rQV9g==" spinCount="100000" sqref="S6:S16 W6:Y16 L6:L16 J6:J16" name="FormulaRanges"/>
   </protectedRanges>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="E20:L30">
     <cfRule type="iconSet" priority="1">
@@ -8000,7 +8183,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B82">
         <v>45044</v>
@@ -8008,7 +8191,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B83">
         <v>45047</v>
@@ -19131,7 +19314,7 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>452373</v>
+        <v>455865</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -19142,7 +19325,7 @@
         <v>1425</v>
       </c>
       <c r="B5">
-        <v>452374</v>
+        <v>455866</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -19161,7 +19344,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19265,16 +19448,16 @@
         <v>1108346504</v>
       </c>
       <c r="B2" s="13">
-        <v>352250919166702</v>
+        <v>32250923449602</v>
       </c>
       <c r="C2">
-        <v>1000000024806510</v>
+        <v>1500000068202780</v>
       </c>
       <c r="D2">
-        <v>1582224</v>
+        <v>3774974</v>
       </c>
       <c r="E2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F2" t="s">
         <v>1157</v>
@@ -19286,25 +19469,25 @@
         <v>1159</v>
       </c>
       <c r="I2" t="s">
-        <v>1573</v>
+        <v>1595</v>
       </c>
       <c r="K2">
-        <v>47758</v>
+        <v>47754</v>
       </c>
       <c r="L2">
         <v>225</v>
       </c>
       <c r="M2">
-        <v>32.799999999999997</v>
+        <v>24.85</v>
       </c>
       <c r="N2" s="6">
-        <v>45919.457361111112</v>
+        <v>45923.446875000001</v>
       </c>
       <c r="O2" s="6">
-        <v>45919.457361111112</v>
+        <v>45923.446875000001</v>
       </c>
       <c r="P2" s="18">
-        <v>45919.457361111112</v>
+        <v>45923.446875000001</v>
       </c>
       <c r="Q2" s="7">
         <v>45923</v>
@@ -19313,7 +19496,7 @@
         <v>1155</v>
       </c>
       <c r="S2">
-        <v>25200</v>
+        <v>25100</v>
       </c>
       <c r="AA2" s="10"/>
     </row>
@@ -19322,13 +19505,13 @@
         <v>1108346504</v>
       </c>
       <c r="B3" s="13">
-        <v>362250919167902</v>
+        <v>32250923474202</v>
       </c>
       <c r="C3" s="10">
-        <v>1000000023877340</v>
+        <v>1500000073466040</v>
       </c>
       <c r="D3" s="10">
-        <v>1551845</v>
+        <v>3988029</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>1154</v>
@@ -19343,26 +19526,26 @@
         <v>1159</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1573</v>
+        <v>1595</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10">
-        <v>47758</v>
+        <v>47754</v>
       </c>
       <c r="L3" s="10">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="M3" s="10">
-        <v>31.2</v>
+        <v>24.75</v>
       </c>
       <c r="N3" s="6">
-        <v>45919.452986111108</v>
+        <v>45923.453518518516</v>
       </c>
       <c r="O3" s="6">
-        <v>45919.452986111108</v>
+        <v>45923.453518518516</v>
       </c>
       <c r="P3" s="18">
-        <v>45919.452986111108</v>
+        <v>45923.453518518516</v>
       </c>
       <c r="Q3" s="7">
         <v>45923</v>
@@ -19371,7 +19554,7 @@
         <v>1155</v>
       </c>
       <c r="S3" s="10">
-        <v>25200</v>
+        <v>25100</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="11"/>
@@ -19386,23 +19569,61 @@
       <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4">
+        <v>1108346504</v>
+      </c>
+      <c r="B4" s="13">
+        <v>32250923561702</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1400000083377530</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2832895</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="K4" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L4" s="10">
+        <v>150</v>
+      </c>
+      <c r="M4" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="P4" s="18">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S4" s="10">
+        <v>25050</v>
+      </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -19416,23 +19637,61 @@
       <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5">
+        <v>1108346504</v>
+      </c>
+      <c r="B5" s="13">
+        <v>32250923561702</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1400000083377530</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2832901</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="K5" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L5" s="10">
+        <v>300</v>
+      </c>
+      <c r="M5" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="P5" s="18">
+        <v>45923.471956018519</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S5" s="10">
+        <v>25050</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
@@ -19446,23 +19705,61 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6">
+        <v>1108346504</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32250923932202</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1000000183221380</v>
+      </c>
+      <c r="D6" s="10">
+        <v>10588831</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1597</v>
+      </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="K6" s="10">
+        <v>47757</v>
+      </c>
+      <c r="L6" s="10">
+        <v>75</v>
+      </c>
+      <c r="M6" s="10">
+        <v>31.75</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="P6" s="18">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S6" s="10">
+        <v>25200</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
@@ -19476,23 +19773,61 @@
       <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7">
+        <v>1108346504</v>
+      </c>
+      <c r="B7" s="13">
+        <v>32250923932202</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1000000183221380</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10588832</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1597</v>
+      </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="K7" s="10">
+        <v>47757</v>
+      </c>
+      <c r="L7" s="10">
+        <v>150</v>
+      </c>
+      <c r="M7" s="10">
+        <v>31.75</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="P7" s="18">
+        <v>45923.553483796299</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S7" s="10">
+        <v>25200</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -19506,23 +19841,61 @@
       <c r="AD7" s="11"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8">
+        <v>1108346504</v>
+      </c>
+      <c r="B8" s="13">
+        <v>92250923424402</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1500000063888680</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3589341</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="K8" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L8" s="10">
+        <v>150</v>
+      </c>
+      <c r="M8" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="O8" s="6">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="P8" s="18">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S8" s="10">
+        <v>25100</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -19536,23 +19909,61 @@
       <c r="AD8" s="11"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9">
+        <v>1108346504</v>
+      </c>
+      <c r="B9" s="13">
+        <v>92250923424402</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1500000063888680</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3589342</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="K9" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L9" s="10">
+        <v>75</v>
+      </c>
+      <c r="M9" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="P9" s="18">
+        <v>45923.443009259259</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S9" s="10">
+        <v>25100</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
@@ -19566,10 +19977,60 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="Q10" s="7"/>
+      <c r="A10">
+        <v>1108346504</v>
+      </c>
+      <c r="B10" s="13">
+        <v>92250923528402</v>
+      </c>
+      <c r="C10">
+        <v>1400000081755820</v>
+      </c>
+      <c r="D10">
+        <v>2759601</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K10">
+        <v>47752</v>
+      </c>
+      <c r="L10">
+        <v>525</v>
+      </c>
+      <c r="M10">
+        <v>17.25</v>
+      </c>
+      <c r="N10" s="6">
+        <v>45923.470034722224</v>
+      </c>
+      <c r="O10" s="6">
+        <v>45923.470034722224</v>
+      </c>
+      <c r="P10" s="18">
+        <v>45923.470034722224</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S10">
+        <v>25050</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
@@ -19581,10 +20042,60 @@
       <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="Q11" s="7"/>
+      <c r="A11">
+        <v>1108346504</v>
+      </c>
+      <c r="B11" s="13">
+        <v>92250923532402</v>
+      </c>
+      <c r="C11">
+        <v>1400000082466930</v>
+      </c>
+      <c r="D11">
+        <v>2789587</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K11">
+        <v>47752</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+      <c r="M11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N11" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="O11" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="P11" s="18">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S11">
+        <v>25050</v>
+      </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
@@ -19596,10 +20107,60 @@
       <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" s="7"/>
+      <c r="A12">
+        <v>1108346504</v>
+      </c>
+      <c r="B12" s="13">
+        <v>92250923532402</v>
+      </c>
+      <c r="C12">
+        <v>1400000082466930</v>
+      </c>
+      <c r="D12">
+        <v>2789590</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K12">
+        <v>47752</v>
+      </c>
+      <c r="L12">
+        <v>225</v>
+      </c>
+      <c r="M12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N12" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="O12" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="P12" s="18">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S12">
+        <v>25050</v>
+      </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -19611,24 +20172,61 @@
       <c r="AB12" s="10"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="A13">
+        <v>1108346504</v>
+      </c>
+      <c r="B13" s="13">
+        <v>92250923532402</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1400000082466930</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2789592</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="K13" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L13" s="10">
+        <v>75</v>
+      </c>
+      <c r="M13" s="10">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N13" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="O13" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="P13" s="6">
+        <v>45923.47079861111</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S13" s="10">
+        <v>25050</v>
+      </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -19640,10 +20238,60 @@
       <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="Q14" s="7"/>
+      <c r="A14">
+        <v>1108346504</v>
+      </c>
+      <c r="B14" s="13">
+        <v>92250923565202</v>
+      </c>
+      <c r="C14">
+        <v>1400000088993830</v>
+      </c>
+      <c r="D14">
+        <v>3047447</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K14">
+        <v>47752</v>
+      </c>
+      <c r="L14">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>15.25</v>
+      </c>
+      <c r="N14" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="O14" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="P14" s="18">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S14">
+        <v>25050</v>
+      </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
@@ -19655,10 +20303,60 @@
       <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="Q15" s="7"/>
+      <c r="A15">
+        <v>1108346504</v>
+      </c>
+      <c r="B15" s="13">
+        <v>92250923565202</v>
+      </c>
+      <c r="C15">
+        <v>1400000088993830</v>
+      </c>
+      <c r="D15">
+        <v>3047448</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K15">
+        <v>47752</v>
+      </c>
+      <c r="L15">
+        <v>300</v>
+      </c>
+      <c r="M15">
+        <v>15.25</v>
+      </c>
+      <c r="N15" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="O15" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="P15" s="18">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S15">
+        <v>25050</v>
+      </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -19670,23 +20368,61 @@
       <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16">
+        <v>1108346504</v>
+      </c>
+      <c r="B16" s="13">
+        <v>92250923565202</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1400000088993830</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3047449</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="K16" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L16" s="10">
+        <v>75</v>
+      </c>
+      <c r="M16" s="10">
+        <v>15.25</v>
+      </c>
+      <c r="N16" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="O16" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="P16" s="18">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S16" s="10">
+        <v>25050</v>
+      </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -19697,24 +20433,62 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1108346504</v>
+      </c>
+      <c r="B17" s="13">
+        <v>92250923565202</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1400000088993830</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3047450</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="K17" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L17" s="10">
+        <v>150</v>
+      </c>
+      <c r="M17" s="10">
+        <v>15.25</v>
+      </c>
+      <c r="N17" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="O17" s="6">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="P17" s="18">
+        <v>45923.478726851848</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S17" s="10">
+        <v>25050</v>
+      </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
@@ -19725,24 +20499,62 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1108346504</v>
+      </c>
+      <c r="B18" s="13">
+        <v>312250923272402</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1400000050523150</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1830832</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="K18" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L18" s="10">
+        <v>525</v>
+      </c>
+      <c r="M18" s="10">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="N18" s="6">
+        <v>45923.432893518519</v>
+      </c>
+      <c r="O18" s="6">
+        <v>45923.432893518519</v>
+      </c>
+      <c r="P18" s="18">
+        <v>45923.432893518519</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S18" s="10">
+        <v>25050</v>
+      </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -19753,24 +20565,62 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1108346504</v>
+      </c>
+      <c r="B19" s="13">
+        <v>312250923293602</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1400000057626920</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2030612</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="K19" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L19" s="10">
+        <v>600</v>
+      </c>
+      <c r="M19" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="N19" s="6">
+        <v>45923.440763888888</v>
+      </c>
+      <c r="O19" s="6">
+        <v>45923.440763888888</v>
+      </c>
+      <c r="P19" s="18">
+        <v>45923.440763888888</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S19" s="10">
+        <v>25050</v>
+      </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
@@ -19781,24 +20631,62 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1108346504</v>
+      </c>
+      <c r="B20" s="13">
+        <v>312250923320602</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1500000071211010</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3891506</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="K20" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L20" s="10">
+        <v>150</v>
+      </c>
+      <c r="M20" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="N20" s="6">
+        <v>45923.450567129628</v>
+      </c>
+      <c r="O20" s="6">
+        <v>45923.450567129628</v>
+      </c>
+      <c r="P20" s="18">
+        <v>45923.450567129628</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S20" s="10">
+        <v>25100</v>
+      </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
@@ -19809,24 +20697,62 @@
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1108346504</v>
+      </c>
+      <c r="B21" s="13">
+        <v>322250923272502</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1400000057568710</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2028596</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="K21" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L21" s="10">
+        <v>75</v>
+      </c>
+      <c r="M21" s="10">
+        <v>13</v>
+      </c>
+      <c r="N21" s="6">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="O21" s="6">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="P21" s="18">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S21" s="10">
+        <v>25050</v>
+      </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
@@ -19837,11 +20763,61 @@
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="Q22" s="7"/>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1108346504</v>
+      </c>
+      <c r="B22" s="13">
+        <v>322250923272502</v>
+      </c>
+      <c r="C22">
+        <v>1400000057568710</v>
+      </c>
+      <c r="D22">
+        <v>2028597</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K22">
+        <v>47752</v>
+      </c>
+      <c r="L22">
+        <v>525</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22" s="6">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="O22" s="6">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="P22" s="18">
+        <v>45923.440625000003</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S22">
+        <v>25050</v>
+      </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
@@ -19852,11 +20828,61 @@
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="Q23" s="7"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1108346504</v>
+      </c>
+      <c r="B23" s="13">
+        <v>342250923102302</v>
+      </c>
+      <c r="C23">
+        <v>1500000072150030</v>
+      </c>
+      <c r="D23">
+        <v>3932060</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K23">
+        <v>47754</v>
+      </c>
+      <c r="L23">
+        <v>150</v>
+      </c>
+      <c r="M23">
+        <v>25.8</v>
+      </c>
+      <c r="N23" s="6">
+        <v>45923.451956018522</v>
+      </c>
+      <c r="O23" s="6">
+        <v>45923.451956018522</v>
+      </c>
+      <c r="P23" s="18">
+        <v>45923.451956018522</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S23">
+        <v>25100</v>
+      </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -19867,24 +20893,62 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1108346504</v>
+      </c>
+      <c r="B24" s="13">
+        <v>342250923118802</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1400000081909350</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2766291</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="K24" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L24" s="10">
+        <v>150</v>
+      </c>
+      <c r="M24" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N24" s="6">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="O24" s="6">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="P24" s="18">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S24" s="10">
+        <v>25050</v>
+      </c>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -19895,11 +20959,61 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="Q25" s="7"/>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1108346504</v>
+      </c>
+      <c r="B25" s="13">
+        <v>342250923118802</v>
+      </c>
+      <c r="C25">
+        <v>1400000081909350</v>
+      </c>
+      <c r="D25">
+        <v>2766292</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K25">
+        <v>47752</v>
+      </c>
+      <c r="L25">
+        <v>375</v>
+      </c>
+      <c r="M25">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N25" s="6">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="O25" s="6">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="P25" s="18">
+        <v>45923.470185185186</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S25">
+        <v>25050</v>
+      </c>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -19910,11 +21024,61 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="Q26" s="7"/>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1108346504</v>
+      </c>
+      <c r="B26" s="13">
+        <v>352250923262902</v>
+      </c>
+      <c r="C26">
+        <v>1400000050680240</v>
+      </c>
+      <c r="D26">
+        <v>1862279</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K26">
+        <v>47752</v>
+      </c>
+      <c r="L26">
+        <v>525</v>
+      </c>
+      <c r="M26">
+        <v>15.2</v>
+      </c>
+      <c r="N26" s="6">
+        <v>45923.433877314812</v>
+      </c>
+      <c r="O26" s="6">
+        <v>45923.433877314812</v>
+      </c>
+      <c r="P26" s="18">
+        <v>45923.433877314812</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S26">
+        <v>25050</v>
+      </c>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
@@ -19925,11 +21089,61 @@
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="Q27" s="7"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1108346504</v>
+      </c>
+      <c r="B27" s="13">
+        <v>352250923606202</v>
+      </c>
+      <c r="C27">
+        <v>1000000182934650</v>
+      </c>
+      <c r="D27">
+        <v>10564142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K27">
+        <v>47757</v>
+      </c>
+      <c r="L27">
+        <v>225</v>
+      </c>
+      <c r="M27">
+        <v>37.15</v>
+      </c>
+      <c r="N27" s="6">
+        <v>45923.552951388891</v>
+      </c>
+      <c r="O27" s="6">
+        <v>45923.552951388891</v>
+      </c>
+      <c r="P27" s="18">
+        <v>45923.552951388891</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S27">
+        <v>25200</v>
+      </c>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -19940,24 +21154,62 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1108346504</v>
+      </c>
+      <c r="B28" s="13">
+        <v>362250923291702</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1500000063838110</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3553261</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L28" s="10">
+        <v>225</v>
+      </c>
+      <c r="M28" s="10">
+        <v>28.25</v>
+      </c>
+      <c r="N28" s="6">
+        <v>45923.442060185182</v>
+      </c>
+      <c r="O28" s="6">
+        <v>45923.442060185182</v>
+      </c>
+      <c r="P28" s="18">
+        <v>45923.442060185182</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S28" s="10">
+        <v>25100</v>
+      </c>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -19968,24 +21220,62 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1108346504</v>
+      </c>
+      <c r="B29" s="13">
+        <v>362250923307802</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1500000068267830</v>
+      </c>
+      <c r="D29" s="10">
+        <v>3805660</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="K29" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L29" s="10">
+        <v>225</v>
+      </c>
+      <c r="M29" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="N29" s="6">
+        <v>45923.447939814818</v>
+      </c>
+      <c r="O29" s="6">
+        <v>45923.447939814818</v>
+      </c>
+      <c r="P29" s="18">
+        <v>45923.447939814818</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S29" s="10">
+        <v>25100</v>
+      </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -19996,24 +21286,62 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1108346504</v>
+      </c>
+      <c r="B30" s="13">
+        <v>362250923326702</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1500000075144830</v>
+      </c>
+      <c r="D30" s="10">
+        <v>4061225</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1595</v>
+      </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="K30" s="10">
+        <v>47754</v>
+      </c>
+      <c r="L30" s="10">
+        <v>375</v>
+      </c>
+      <c r="M30" s="10">
+        <v>21</v>
+      </c>
+      <c r="N30" s="6">
+        <v>45923.455590277779</v>
+      </c>
+      <c r="O30" s="6">
+        <v>45923.455590277779</v>
+      </c>
+      <c r="P30" s="18">
+        <v>45923.455590277779</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S30" s="10">
+        <v>25100</v>
+      </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
@@ -20024,24 +21352,62 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1108346504</v>
+      </c>
+      <c r="B31" s="13">
+        <v>362250923397202</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1400000089598880</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3071068</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>1594</v>
+      </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="K31" s="10">
+        <v>47752</v>
+      </c>
+      <c r="L31" s="10">
+        <v>600</v>
+      </c>
+      <c r="M31" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N31" s="6">
+        <v>45923.479490740741</v>
+      </c>
+      <c r="O31" s="6">
+        <v>45923.479490740741</v>
+      </c>
+      <c r="P31" s="18">
+        <v>45923.479490740741</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S31" s="10">
+        <v>25050</v>
+      </c>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -20052,24 +21418,62 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1108346504</v>
+      </c>
+      <c r="B32" s="13">
+        <v>362250923601702</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1000000171044770</v>
+      </c>
+      <c r="D32" s="10">
+        <v>9891386</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>1597</v>
+      </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="K32" s="10">
+        <v>47757</v>
+      </c>
+      <c r="L32" s="10">
+        <v>225</v>
+      </c>
+      <c r="M32" s="10">
+        <v>37.85</v>
+      </c>
+      <c r="N32" s="6">
+        <v>45923.542800925927</v>
+      </c>
+      <c r="O32" s="6">
+        <v>45923.542800925927</v>
+      </c>
+      <c r="P32" s="18">
+        <v>45923.542800925927</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S32" s="10">
+        <v>25200</v>
+      </c>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -20080,24 +21484,62 @@
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1108346504</v>
+      </c>
+      <c r="B33" s="13">
+        <v>362250923601902</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1000000171094600</v>
+      </c>
+      <c r="D33" s="10">
+        <v>9905133</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>1597</v>
+      </c>
       <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="K33" s="10">
+        <v>47757</v>
+      </c>
+      <c r="L33" s="10">
+        <v>75</v>
+      </c>
+      <c r="M33" s="10">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="N33" s="6">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="O33" s="6">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="P33" s="18">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S33" s="10">
+        <v>25200</v>
+      </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -20108,11 +21550,61 @@
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="Q34" s="7"/>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1108346504</v>
+      </c>
+      <c r="B34" s="13">
+        <v>362250923601902</v>
+      </c>
+      <c r="C34">
+        <v>1000000171094600</v>
+      </c>
+      <c r="D34">
+        <v>9905224</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K34">
+        <v>47757</v>
+      </c>
+      <c r="L34">
+        <v>150</v>
+      </c>
+      <c r="M34">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="N34" s="6">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="O34" s="6">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="P34" s="18">
+        <v>45923.542928240742</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>45923</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S34">
+        <v>25200</v>
+      </c>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -20123,7 +21615,7 @@
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -20138,7 +21630,7 @@
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -20166,7 +21658,7 @@
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -20194,7 +21686,7 @@
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -20222,7 +21714,7 @@
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -20251,7 +21743,7 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -20280,7 +21772,7 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -20309,7 +21801,7 @@
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -20337,7 +21829,7 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -20352,7 +21844,7 @@
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -20368,7 +21860,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -20397,7 +21889,7 @@
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -20426,7 +21918,7 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -20455,7 +21947,7 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -32199,4 +33691,4055 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B412852A-CA37-4959-AC81-F33588A880EB}">
+  <dimension ref="A1:M431"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1" s="28">
+        <f>SUMIF(B3:B52,"BUY",E3:E52)</f>
+        <v>85436.25</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E1" s="28">
+        <f>B2-B1</f>
+        <v>-3300</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H1" s="36">
+        <f>E1-E2</f>
+        <v>-4233.9525139650004</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K1" s="36">
+        <f>COUNT(_xlfn.UNIQUE(A4:A52))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B2" s="30">
+        <f>SUMIF(B3:B52,"SELL",E3:E52)</f>
+        <v>82136.25</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E2" s="30">
+        <f>SUM(M4:M52)</f>
+        <v>933.95251396500009</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <f>IF(Orders!B2&lt;&gt;"",Orders!B2,"")</f>
+        <v>32250923449602</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>IF(Orders!E2&lt;&gt;"",Orders!E2,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C4" s="10">
+        <f>IF(Orders!L2&lt;&gt;"",Orders!L2,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D4" s="10">
+        <f>IF(Orders!M2&lt;&gt;"",Orders!M2,"")</f>
+        <v>24.85</v>
+      </c>
+      <c r="E4" s="10">
+        <f>IF(A4&lt;&gt;"",C4*D4,"")</f>
+        <v>5591.25</v>
+      </c>
+      <c r="F4" s="10">
+        <f>IF(A4&lt;&gt;"",20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="10">
+        <f>IF(A4&lt;&gt;"",E4*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.9586148750000001</v>
+      </c>
+      <c r="H4" s="10">
+        <f>IF(A4&lt;&gt;"",E4*'Brokerage Charges'!$D$3,"")</f>
+        <v>5.5912499999999999E-3</v>
+      </c>
+      <c r="I4" s="10">
+        <f>IF(A4&lt;&gt;"",E4*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.7956250000000002E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <f>IF(B4="BUY",E4*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.16773750000000001</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f>IF(B4="SELL",E4*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L4" s="10">
+        <f>IF(A4&lt;&gt;"",(F4+G4+H4+I4)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.9585892274999992</v>
+      </c>
+      <c r="M4" s="10">
+        <f>IF(A4&lt;&gt;"",SUM(F4:L4),"")</f>
+        <v>26.118489102499996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <f>IF(Orders!B3&lt;&gt;"",Orders!B3,"")</f>
+        <v>32250923474202</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>IF(Orders!E3&lt;&gt;"",Orders!E3,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C5" s="10">
+        <f>IF(Orders!L3&lt;&gt;"",Orders!L3,"")</f>
+        <v>375</v>
+      </c>
+      <c r="D5" s="10">
+        <f>IF(Orders!M3&lt;&gt;"",Orders!M3,"")</f>
+        <v>24.75</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ref="E5:E52" si="0">IF(A5&lt;&gt;"",C5*D5,"")</f>
+        <v>9281.25</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F52" si="1">IF(A5&lt;&gt;"",20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="10">
+        <f>IF(A5&lt;&gt;"",E5*'Brokerage Charges'!$D$2,"")</f>
+        <v>3.2512218750000001</v>
+      </c>
+      <c r="H5" s="10">
+        <f>IF(A5&lt;&gt;"",E5*'Brokerage Charges'!$D$3,"")</f>
+        <v>9.2812499999999996E-3</v>
+      </c>
+      <c r="I5" s="10">
+        <f>IF(A5&lt;&gt;"",E5*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.6406250000000003E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <f>IF(B5="BUY",E5*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.2784375</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f>IF(B5="SELL",E5*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L5" s="10">
+        <f>IF(A5&lt;&gt;"",(F5+G5+H5+I5)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1952436874999997</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M52" si="2">IF(A5&lt;&gt;"",SUM(F5:L5),"")</f>
+        <v>27.780590562499999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <f>IF(Orders!B4&lt;&gt;"",Orders!B4,"")</f>
+        <v>32250923561702</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>IF(Orders!E4&lt;&gt;"",Orders!E4,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C6" s="10">
+        <f>IF(Orders!L4&lt;&gt;"",Orders!L4,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D6" s="10">
+        <f>IF(Orders!M4&lt;&gt;"",Orders!M4,"")</f>
+        <v>19.5</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>2925</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="10">
+        <f>IF(A6&lt;&gt;"",E6*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.0246275</v>
+      </c>
+      <c r="H6" s="10">
+        <f>IF(A6&lt;&gt;"",E6*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.9250000000000001E-3</v>
+      </c>
+      <c r="I6" s="10">
+        <f>IF(A6&lt;&gt;"",E6*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.4625000000000001E-2</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f>IF(B6="BUY",E6*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="10">
+        <f>IF(B6="SELL",E6*'Brokerage Charges'!$D$6,"")</f>
+        <v>2.9250000000000003</v>
+      </c>
+      <c r="L6" s="10">
+        <f>IF(A6&lt;&gt;"",(F6+G6+H6+I6)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7875919499999999</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>27.754769450000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <f>IF(Orders!B5&lt;&gt;"",Orders!B5,"")</f>
+        <v>32250923561702</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>IF(Orders!E5&lt;&gt;"",Orders!E5,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C7" s="10">
+        <f>IF(Orders!L5&lt;&gt;"",Orders!L5,"")</f>
+        <v>300</v>
+      </c>
+      <c r="D7" s="10">
+        <f>IF(Orders!M5&lt;&gt;"",Orders!M5,"")</f>
+        <v>19.5</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>5850</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <f>IF(A7&lt;&gt;"",E7*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.049255</v>
+      </c>
+      <c r="H7" s="10">
+        <f>IF(A7&lt;&gt;"",E7*'Brokerage Charges'!$D$3,"")</f>
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="I7" s="10">
+        <f>IF(A7&lt;&gt;"",E7*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="J7" s="10" t="str">
+        <f>IF(B7="BUY",E7*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="10">
+        <f>IF(B7="SELL",E7*'Brokerage Charges'!$D$6,"")</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="L7" s="10">
+        <f>IF(A7&lt;&gt;"",(F7+G7+H7+I7)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.9751838999999998</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
+        <v>31.909538900000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <f>IF(Orders!B6&lt;&gt;"",Orders!B6,"")</f>
+        <v>32250923932202</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>IF(Orders!E6&lt;&gt;"",Orders!E6,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C8" s="10">
+        <f>IF(Orders!L6&lt;&gt;"",Orders!L6,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D8" s="10">
+        <f>IF(Orders!M6&lt;&gt;"",Orders!M6,"")</f>
+        <v>31.75</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2381.25</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="10">
+        <f>IF(A8&lt;&gt;"",E8*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.83415187499999999</v>
+      </c>
+      <c r="H8" s="10">
+        <f>IF(A8&lt;&gt;"",E8*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.3812499999999997E-3</v>
+      </c>
+      <c r="I8" s="10">
+        <f>IF(A8&lt;&gt;"",E8*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.190625E-2</v>
+      </c>
+      <c r="J8" s="10" t="str">
+        <f>IF(B8="BUY",E8*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="10">
+        <f>IF(B8="SELL",E8*'Brokerage Charges'!$D$6,"")</f>
+        <v>2.3812500000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <f>IF(A8&lt;&gt;"",(F8+G8+H8+I8)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7527190874999996</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="2"/>
+        <v>26.9824084625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <f>IF(Orders!B7&lt;&gt;"",Orders!B7,"")</f>
+        <v>32250923932202</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>IF(Orders!E7&lt;&gt;"",Orders!E7,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C9" s="10">
+        <f>IF(Orders!L7&lt;&gt;"",Orders!L7,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D9" s="10">
+        <f>IF(Orders!M7&lt;&gt;"",Orders!M7,"")</f>
+        <v>31.75</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>4762.5</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="10">
+        <f>IF(A9&lt;&gt;"",E9*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.66830375</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IF(A9&lt;&gt;"",E9*'Brokerage Charges'!$D$3,"")</f>
+        <v>4.7624999999999994E-3</v>
+      </c>
+      <c r="I9" s="10">
+        <f>IF(A9&lt;&gt;"",E9*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.38125E-2</v>
+      </c>
+      <c r="J9" s="10" t="str">
+        <f>IF(B9="BUY",E9*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="10">
+        <f>IF(B9="SELL",E9*'Brokerage Charges'!$D$6,"")</f>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="L9" s="10">
+        <f>IF(A9&lt;&gt;"",(F9+G9+H9+I9)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.9054381749999991</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="2"/>
+        <v>30.364816924999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <f>IF(Orders!B8&lt;&gt;"",Orders!B8,"")</f>
+        <v>92250923424402</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>IF(Orders!E8&lt;&gt;"",Orders!E8,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C10" s="10">
+        <f>IF(Orders!L8&lt;&gt;"",Orders!L8,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D10" s="10">
+        <f>IF(Orders!M8&lt;&gt;"",Orders!M8,"")</f>
+        <v>24.1</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>3615</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="10">
+        <f>IF(A10&lt;&gt;"",E10*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.2663344999999999</v>
+      </c>
+      <c r="H10" s="10">
+        <f>IF(A10&lt;&gt;"",E10*'Brokerage Charges'!$D$3,"")</f>
+        <v>3.6149999999999997E-3</v>
+      </c>
+      <c r="I10" s="10">
+        <f>IF(A10&lt;&gt;"",E10*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.8075000000000001E-2</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f>IF(B10="BUY",E10*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="10">
+        <f>IF(B10="SELL",E10*'Brokerage Charges'!$D$6,"")</f>
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="L10" s="10">
+        <f>IF(A10&lt;&gt;"",(F10+G10+H10+I10)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.8318444099999995</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="2"/>
+        <v>28.734868909999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <f>IF(Orders!B9&lt;&gt;"",Orders!B9,"")</f>
+        <v>92250923424402</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>IF(Orders!E9&lt;&gt;"",Orders!E9,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C11" s="10">
+        <f>IF(Orders!L9&lt;&gt;"",Orders!L9,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D11" s="10">
+        <f>IF(Orders!M9&lt;&gt;"",Orders!M9,"")</f>
+        <v>24.1</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>1807.5</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="10">
+        <f>IF(A11&lt;&gt;"",E11*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.63316724999999996</v>
+      </c>
+      <c r="H11" s="10">
+        <f>IF(A11&lt;&gt;"",E11*'Brokerage Charges'!$D$3,"")</f>
+        <v>1.8074999999999999E-3</v>
+      </c>
+      <c r="I11" s="10">
+        <f>IF(A11&lt;&gt;"",E11*'Brokerage Charges'!$D$4,"")</f>
+        <v>9.0375000000000004E-3</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f>IF(B11="BUY",E11*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="10">
+        <f>IF(B11="SELL",E11*'Brokerage Charges'!$D$6,"")</f>
+        <v>1.8075000000000001</v>
+      </c>
+      <c r="L11" s="10">
+        <f>IF(A11&lt;&gt;"",(F11+G11+H11+I11)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7159222050000005</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
+        <v>26.167434455000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <f>IF(Orders!B10&lt;&gt;"",Orders!B10,"")</f>
+        <v>92250923528402</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>IF(Orders!E10&lt;&gt;"",Orders!E10,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C12" s="10">
+        <f>IF(Orders!L10&lt;&gt;"",Orders!L10,"")</f>
+        <v>525</v>
+      </c>
+      <c r="D12" s="10">
+        <f>IF(Orders!M10&lt;&gt;"",Orders!M10,"")</f>
+        <v>17.25</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>9056.25</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IF(A12&lt;&gt;"",E12*'Brokerage Charges'!$D$2,"")</f>
+        <v>3.1724043750000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f>IF(A12&lt;&gt;"",E12*'Brokerage Charges'!$D$3,"")</f>
+        <v>9.0562500000000001E-3</v>
+      </c>
+      <c r="I12" s="10">
+        <f>IF(A12&lt;&gt;"",E12*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.5281250000000002E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f>IF(B12="BUY",E12*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.27168750000000003</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f>IF(B12="SELL",E12*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="10">
+        <f>IF(A12&lt;&gt;"",(F12+G12+H12+I12)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1808135374999997</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>27.679242912499998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <f>IF(Orders!B11&lt;&gt;"",Orders!B11,"")</f>
+        <v>92250923532402</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>IF(Orders!E11&lt;&gt;"",Orders!E11,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C13" s="10">
+        <f>IF(Orders!L11&lt;&gt;"",Orders!L11,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D13" s="10">
+        <f>IF(Orders!M11&lt;&gt;"",Orders!M11,"")</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>2790</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IF(A13&lt;&gt;"",E13*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.97733700000000001</v>
+      </c>
+      <c r="H13" s="10">
+        <f>IF(A13&lt;&gt;"",E13*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="I13" s="10">
+        <f>IF(A13&lt;&gt;"",E13*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f>IF(B13="BUY",E13*'Brokerage Charges'!$D$5,"")</f>
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f>IF(B13="SELL",E13*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="10">
+        <f>IF(A13&lt;&gt;"",(F13+G13+H13+I13)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.77893386</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>24.85671086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <f>IF(Orders!B12&lt;&gt;"",Orders!B12,"")</f>
+        <v>92250923532402</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>IF(Orders!E12&lt;&gt;"",Orders!E12,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C14" s="10">
+        <f>IF(Orders!L12&lt;&gt;"",Orders!L12,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D14" s="10">
+        <f>IF(Orders!M12&lt;&gt;"",Orders!M12,"")</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>4185</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(A14&lt;&gt;"",E14*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.4660055000000001</v>
+      </c>
+      <c r="H14" s="10">
+        <f>IF(A14&lt;&gt;"",E14*'Brokerage Charges'!$D$3,"")</f>
+        <v>4.1849999999999995E-3</v>
+      </c>
+      <c r="I14" s="10">
+        <f>IF(A14&lt;&gt;"",E14*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.0925000000000003E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <f>IF(B14="BUY",E14*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.12554999999999999</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f>IF(B14="SELL",E14*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="10">
+        <f>IF(A14&lt;&gt;"",(F14+G14+H14+I14)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.8684007899999999</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="2"/>
+        <v>25.485066289999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <f>IF(Orders!B13&lt;&gt;"",Orders!B13,"")</f>
+        <v>92250923532402</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>IF(Orders!E13&lt;&gt;"",Orders!E13,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C15" s="10">
+        <f>IF(Orders!L13&lt;&gt;"",Orders!L13,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D15" s="10">
+        <f>IF(Orders!M13&lt;&gt;"",Orders!M13,"")</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>1395</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IF(A15&lt;&gt;"",E15*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.48866850000000001</v>
+      </c>
+      <c r="H15" s="10">
+        <f>IF(A15&lt;&gt;"",E15*'Brokerage Charges'!$D$3,"")</f>
+        <v>1.395E-3</v>
+      </c>
+      <c r="I15" s="10">
+        <f>IF(A15&lt;&gt;"",E15*'Brokerage Charges'!$D$4,"")</f>
+        <v>6.9750000000000003E-3</v>
+      </c>
+      <c r="J15" s="10">
+        <f>IF(B15="BUY",E15*'Brokerage Charges'!$D$5,"")</f>
+        <v>4.1849999999999998E-2</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f>IF(B15="SELL",E15*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="10">
+        <f>IF(A15&lt;&gt;"",(F15+G15+H15+I15)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.6894669299999996</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
+        <v>24.228355429999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <f>IF(Orders!B14&lt;&gt;"",Orders!B14,"")</f>
+        <v>92250923565202</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>IF(Orders!E14&lt;&gt;"",Orders!E14,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C16" s="10">
+        <f>IF(Orders!L14&lt;&gt;"",Orders!L14,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D16" s="10">
+        <f>IF(Orders!M14&lt;&gt;"",Orders!M14,"")</f>
+        <v>15.25</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>1143.75</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IF(A16&lt;&gt;"",E16*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.40065562500000002</v>
+      </c>
+      <c r="H16" s="10">
+        <f>IF(A16&lt;&gt;"",E16*'Brokerage Charges'!$D$3,"")</f>
+        <v>1.14375E-3</v>
+      </c>
+      <c r="I16" s="10">
+        <f>IF(A16&lt;&gt;"",E16*'Brokerage Charges'!$D$4,"")</f>
+        <v>5.7187500000000007E-3</v>
+      </c>
+      <c r="J16" s="10">
+        <f>IF(B16="BUY",E16*'Brokerage Charges'!$D$5,"")</f>
+        <v>3.4312500000000003E-2</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f>IF(B16="SELL",E16*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="10">
+        <f>IF(A16&lt;&gt;"",(F16+G16+H16+I16)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.6733532624999996</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
+        <v>24.115183887499999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <f>IF(Orders!B15&lt;&gt;"",Orders!B15,"")</f>
+        <v>92250923565202</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>IF(Orders!E15&lt;&gt;"",Orders!E15,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C17" s="10">
+        <f>IF(Orders!L15&lt;&gt;"",Orders!L15,"")</f>
+        <v>300</v>
+      </c>
+      <c r="D17" s="10">
+        <f>IF(Orders!M15&lt;&gt;"",Orders!M15,"")</f>
+        <v>15.25</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>4575</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IF(A17&lt;&gt;"",E17*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.6026225000000001</v>
+      </c>
+      <c r="H17" s="10">
+        <f>IF(A17&lt;&gt;"",E17*'Brokerage Charges'!$D$3,"")</f>
+        <v>4.5750000000000001E-3</v>
+      </c>
+      <c r="I17" s="10">
+        <f>IF(A17&lt;&gt;"",E17*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.2875000000000003E-2</v>
+      </c>
+      <c r="J17" s="10">
+        <f>IF(B17="BUY",E17*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.13725000000000001</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f>IF(B17="SELL",E17*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="10">
+        <f>IF(A17&lt;&gt;"",(F17+G17+H17+I17)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.8934130499999995</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
+        <v>25.660735549999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <f>IF(Orders!B16&lt;&gt;"",Orders!B16,"")</f>
+        <v>92250923565202</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>IF(Orders!E16&lt;&gt;"",Orders!E16,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C18" s="10">
+        <f>IF(Orders!L16&lt;&gt;"",Orders!L16,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D18" s="10">
+        <f>IF(Orders!M16&lt;&gt;"",Orders!M16,"")</f>
+        <v>15.25</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>1143.75</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="10">
+        <f>IF(A18&lt;&gt;"",E18*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.40065562500000002</v>
+      </c>
+      <c r="H18" s="10">
+        <f>IF(A18&lt;&gt;"",E18*'Brokerage Charges'!$D$3,"")</f>
+        <v>1.14375E-3</v>
+      </c>
+      <c r="I18" s="10">
+        <f>IF(A18&lt;&gt;"",E18*'Brokerage Charges'!$D$4,"")</f>
+        <v>5.7187500000000007E-3</v>
+      </c>
+      <c r="J18" s="10">
+        <f>IF(B18="BUY",E18*'Brokerage Charges'!$D$5,"")</f>
+        <v>3.4312500000000003E-2</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f>IF(B18="SELL",E18*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="10">
+        <f>IF(A18&lt;&gt;"",(F18+G18+H18+I18)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.6733532624999996</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="2"/>
+        <v>24.115183887499999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <f>IF(Orders!B17&lt;&gt;"",Orders!B17,"")</f>
+        <v>92250923565202</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>IF(Orders!E17&lt;&gt;"",Orders!E17,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C19" s="10">
+        <f>IF(Orders!L17&lt;&gt;"",Orders!L17,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D19" s="10">
+        <f>IF(Orders!M17&lt;&gt;"",Orders!M17,"")</f>
+        <v>15.25</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>2287.5</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="10">
+        <f>IF(A19&lt;&gt;"",E19*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.80131125000000003</v>
+      </c>
+      <c r="H19" s="10">
+        <f>IF(A19&lt;&gt;"",E19*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.2875E-3</v>
+      </c>
+      <c r="I19" s="10">
+        <f>IF(A19&lt;&gt;"",E19*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.1437500000000001E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <f>IF(B19="BUY",E19*'Brokerage Charges'!$D$5,"")</f>
+        <v>6.8625000000000005E-2</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f>IF(B19="SELL",E19*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="10">
+        <f>IF(A19&lt;&gt;"",(F19+G19+H19+I19)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7467065250000005</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>24.630367775000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <f>IF(Orders!B18&lt;&gt;"",Orders!B18,"")</f>
+        <v>312250923272402</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>IF(Orders!E18&lt;&gt;"",Orders!E18,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C20" s="10">
+        <f>IF(Orders!L18&lt;&gt;"",Orders!L18,"")</f>
+        <v>525</v>
+      </c>
+      <c r="D20" s="10">
+        <f>IF(Orders!M18&lt;&gt;"",Orders!M18,"")</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>9266.25</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="10">
+        <f>IF(A20&lt;&gt;"",E20*'Brokerage Charges'!$D$2,"")</f>
+        <v>3.2459673750000002</v>
+      </c>
+      <c r="H20" s="10">
+        <f>IF(A20&lt;&gt;"",E20*'Brokerage Charges'!$D$3,"")</f>
+        <v>9.2662500000000002E-3</v>
+      </c>
+      <c r="I20" s="10">
+        <f>IF(A20&lt;&gt;"",E20*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.6331250000000004E-2</v>
+      </c>
+      <c r="J20" s="10">
+        <f>IF(B20="BUY",E20*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.2779875</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f>IF(B20="SELL",E20*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="10">
+        <f>IF(A20&lt;&gt;"",(F20+G20+H20+I20)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1942816775000002</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>27.7738340525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <f>IF(Orders!B19&lt;&gt;"",Orders!B19,"")</f>
+        <v>312250923293602</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>IF(Orders!E19&lt;&gt;"",Orders!E19,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C21" s="10">
+        <f>IF(Orders!L19&lt;&gt;"",Orders!L19,"")</f>
+        <v>600</v>
+      </c>
+      <c r="D21" s="10">
+        <f>IF(Orders!M19&lt;&gt;"",Orders!M19,"")</f>
+        <v>13.6</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>8160</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="10">
+        <f>IF(A21&lt;&gt;"",E21*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.8584480000000001</v>
+      </c>
+      <c r="H21" s="10">
+        <f>IF(A21&lt;&gt;"",E21*'Brokerage Charges'!$D$3,"")</f>
+        <v>8.1599999999999989E-3</v>
+      </c>
+      <c r="I21" s="10">
+        <f>IF(A21&lt;&gt;"",E21*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f>IF(B21="BUY",E21*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="10">
+        <f>IF(B21="SELL",E21*'Brokerage Charges'!$D$6,"")</f>
+        <v>8.16</v>
+      </c>
+      <c r="L21" s="10">
+        <f>IF(A21&lt;&gt;"",(F21+G21+H21+I21)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1233334399999997</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="2"/>
+        <v>35.190741439999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <f>IF(Orders!B20&lt;&gt;"",Orders!B20,"")</f>
+        <v>312250923320602</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>IF(Orders!E20&lt;&gt;"",Orders!E20,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C22" s="10">
+        <f>IF(Orders!L20&lt;&gt;"",Orders!L20,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D22" s="10">
+        <f>IF(Orders!M20&lt;&gt;"",Orders!M20,"")</f>
+        <v>24.6</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>3690</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="10">
+        <f>IF(A22&lt;&gt;"",E22*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.2926070000000001</v>
+      </c>
+      <c r="H22" s="10">
+        <f>IF(A22&lt;&gt;"",E22*'Brokerage Charges'!$D$3,"")</f>
+        <v>3.6899999999999997E-3</v>
+      </c>
+      <c r="I22" s="10">
+        <f>IF(A22&lt;&gt;"",E22*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <f>IF(B22="BUY",E22*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f>IF(B22="SELL",E22*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="10">
+        <f>IF(A22&lt;&gt;"",(F22+G22+H22+I22)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.8366544600000001</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="2"/>
+        <v>25.262101460000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <f>IF(Orders!B21&lt;&gt;"",Orders!B21,"")</f>
+        <v>322250923272502</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>IF(Orders!E21&lt;&gt;"",Orders!E21,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C23" s="10">
+        <f>IF(Orders!L21&lt;&gt;"",Orders!L21,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D23" s="10">
+        <f>IF(Orders!M21&lt;&gt;"",Orders!M21,"")</f>
+        <v>13</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="10">
+        <f>IF(A23&lt;&gt;"",E23*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.34154250000000003</v>
+      </c>
+      <c r="H23" s="10">
+        <f>IF(A23&lt;&gt;"",E23*'Brokerage Charges'!$D$3,"")</f>
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="I23" s="10">
+        <f>IF(A23&lt;&gt;"",E23*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.875E-3</v>
+      </c>
+      <c r="J23" s="10">
+        <f>IF(B23="BUY",E23*'Brokerage Charges'!$D$5,"")</f>
+        <v>2.9250000000000002E-2</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <f>IF(B23="SELL",E23*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="10">
+        <f>IF(A23&lt;&gt;"",(F23+G23+H23+I23)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.6625306499999994</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="2"/>
+        <v>24.03917315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f>IF(Orders!B22&lt;&gt;"",Orders!B22,"")</f>
+        <v>322250923272502</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>IF(Orders!E22&lt;&gt;"",Orders!E22,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C24" s="10">
+        <f>IF(Orders!L22&lt;&gt;"",Orders!L22,"")</f>
+        <v>525</v>
+      </c>
+      <c r="D24" s="10">
+        <f>IF(Orders!M22&lt;&gt;"",Orders!M22,"")</f>
+        <v>13</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>6825</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="10">
+        <f>IF(A24&lt;&gt;"",E24*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.3907975000000001</v>
+      </c>
+      <c r="H24" s="10">
+        <f>IF(A24&lt;&gt;"",E24*'Brokerage Charges'!$D$3,"")</f>
+        <v>6.8249999999999995E-3</v>
+      </c>
+      <c r="I24" s="10">
+        <f>IF(A24&lt;&gt;"",E24*'Brokerage Charges'!$D$4,"")</f>
+        <v>3.4125000000000003E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <f>IF(B24="BUY",E24*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.20475000000000002</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f>IF(B24="SELL",E24*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="10">
+        <f>IF(A24&lt;&gt;"",(F24+G24+H24+I24)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.0377145499999996</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="2"/>
+        <v>26.674212050000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f>IF(Orders!B23&lt;&gt;"",Orders!B23,"")</f>
+        <v>342250923102302</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>IF(Orders!E23&lt;&gt;"",Orders!E23,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C25" s="10">
+        <f>IF(Orders!L23&lt;&gt;"",Orders!L23,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D25" s="10">
+        <f>IF(Orders!M23&lt;&gt;"",Orders!M23,"")</f>
+        <v>25.8</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>3870</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="10">
+        <f>IF(A25&lt;&gt;"",E25*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.355661</v>
+      </c>
+      <c r="H25" s="10">
+        <f>IF(A25&lt;&gt;"",E25*'Brokerage Charges'!$D$3,"")</f>
+        <v>3.8699999999999997E-3</v>
+      </c>
+      <c r="I25" s="10">
+        <f>IF(A25&lt;&gt;"",E25*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.9350000000000003E-2</v>
+      </c>
+      <c r="J25" s="10" t="str">
+        <f>IF(B25="BUY",E25*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="10">
+        <f>IF(B25="SELL",E25*'Brokerage Charges'!$D$6,"")</f>
+        <v>3.87</v>
+      </c>
+      <c r="L25" s="10">
+        <f>IF(A25&lt;&gt;"",(F25+G25+H25+I25)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.84819858</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="2"/>
+        <v>29.097079579999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <f>IF(Orders!B24&lt;&gt;"",Orders!B24,"")</f>
+        <v>342250923118802</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>IF(Orders!E24&lt;&gt;"",Orders!E24,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C26" s="10">
+        <f>IF(Orders!L24&lt;&gt;"",Orders!L24,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D26" s="10">
+        <f>IF(Orders!M24&lt;&gt;"",Orders!M24,"")</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>2715</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="10">
+        <f>IF(A26&lt;&gt;"",E26*'Brokerage Charges'!$D$2,"")</f>
+        <v>0.95106449999999998</v>
+      </c>
+      <c r="H26" s="10">
+        <f>IF(A26&lt;&gt;"",E26*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.715E-3</v>
+      </c>
+      <c r="I26" s="10">
+        <f>IF(A26&lt;&gt;"",E26*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.3575E-2</v>
+      </c>
+      <c r="J26" s="10" t="str">
+        <f>IF(B26="BUY",E26*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="10">
+        <f>IF(B26="SELL",E26*'Brokerage Charges'!$D$6,"")</f>
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="L26" s="10">
+        <f>IF(A26&lt;&gt;"",(F26+G26+H26+I26)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7741238099999999</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="2"/>
+        <v>27.456478309999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <f>IF(Orders!B25&lt;&gt;"",Orders!B25,"")</f>
+        <v>342250923118802</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>IF(Orders!E25&lt;&gt;"",Orders!E25,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C27" s="10">
+        <f>IF(Orders!L25&lt;&gt;"",Orders!L25,"")</f>
+        <v>375</v>
+      </c>
+      <c r="D27" s="10">
+        <f>IF(Orders!M25&lt;&gt;"",Orders!M25,"")</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>6787.5000000000009</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="10">
+        <f>IF(A27&lt;&gt;"",E27*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.3776612500000005</v>
+      </c>
+      <c r="H27" s="10">
+        <f>IF(A27&lt;&gt;"",E27*'Brokerage Charges'!$D$3,"")</f>
+        <v>6.787500000000001E-3</v>
+      </c>
+      <c r="I27" s="10">
+        <f>IF(A27&lt;&gt;"",E27*'Brokerage Charges'!$D$4,"")</f>
+        <v>3.3937500000000009E-2</v>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f>IF(B27="BUY",E27*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="10">
+        <f>IF(B27="SELL",E27*'Brokerage Charges'!$D$6,"")</f>
+        <v>6.7875000000000014</v>
+      </c>
+      <c r="L27" s="10">
+        <f>IF(A27&lt;&gt;"",(F27+G27+H27+I27)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.0353095249999997</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="2"/>
+        <v>33.241195775000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <f>IF(Orders!B26&lt;&gt;"",Orders!B26,"")</f>
+        <v>352250923262902</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>IF(Orders!E26&lt;&gt;"",Orders!E26,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C28" s="10">
+        <f>IF(Orders!L26&lt;&gt;"",Orders!L26,"")</f>
+        <v>525</v>
+      </c>
+      <c r="D28" s="10">
+        <f>IF(Orders!M26&lt;&gt;"",Orders!M26,"")</f>
+        <v>15.2</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>7980</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="10">
+        <f>IF(A28&lt;&gt;"",E28*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.7953939999999999</v>
+      </c>
+      <c r="H28" s="10">
+        <f>IF(A28&lt;&gt;"",E28*'Brokerage Charges'!$D$3,"")</f>
+        <v>7.9799999999999992E-3</v>
+      </c>
+      <c r="I28" s="10">
+        <f>IF(A28&lt;&gt;"",E28*'Brokerage Charges'!$D$4,"")</f>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="J28" s="10" t="str">
+        <f>IF(B28="BUY",E28*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="10">
+        <f>IF(B28="SELL",E28*'Brokerage Charges'!$D$6,"")</f>
+        <v>7.98</v>
+      </c>
+      <c r="L28" s="10">
+        <f>IF(A28&lt;&gt;"",(F28+G28+H28+I28)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1117893199999997</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="2"/>
+        <v>34.935063319999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <f>IF(Orders!B27&lt;&gt;"",Orders!B27,"")</f>
+        <v>352250923606202</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>IF(Orders!E27&lt;&gt;"",Orders!E27,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C29" s="10">
+        <f>IF(Orders!L27&lt;&gt;"",Orders!L27,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D29" s="10">
+        <f>IF(Orders!M27&lt;&gt;"",Orders!M27,"")</f>
+        <v>37.15</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="0"/>
+        <v>8358.75</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="10">
+        <f>IF(A29&lt;&gt;"",E29*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.9280701250000001</v>
+      </c>
+      <c r="H29" s="10">
+        <f>IF(A29&lt;&gt;"",E29*'Brokerage Charges'!$D$3,"")</f>
+        <v>8.3587499999999999E-3</v>
+      </c>
+      <c r="I29" s="10">
+        <f>IF(A29&lt;&gt;"",E29*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.1793750000000005E-2</v>
+      </c>
+      <c r="J29" s="10">
+        <f>IF(B29="BUY",E29*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.2507625</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f>IF(B29="SELL",E29*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="10">
+        <f>IF(A29&lt;&gt;"",(F29+G29+H29+I29)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1360800725000004</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="2"/>
+        <v>27.365065197500002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <f>IF(Orders!B28&lt;&gt;"",Orders!B28,"")</f>
+        <v>362250923291702</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>IF(Orders!E28&lt;&gt;"",Orders!E28,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C30" s="10">
+        <f>IF(Orders!L28&lt;&gt;"",Orders!L28,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D30" s="10">
+        <f>IF(Orders!M28&lt;&gt;"",Orders!M28,"")</f>
+        <v>28.25</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="0"/>
+        <v>6356.25</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G30" s="10">
+        <f>IF(A30&lt;&gt;"",E30*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.2265943749999999</v>
+      </c>
+      <c r="H30" s="10">
+        <f>IF(A30&lt;&gt;"",E30*'Brokerage Charges'!$D$3,"")</f>
+        <v>6.3562499999999999E-3</v>
+      </c>
+      <c r="I30" s="10">
+        <f>IF(A30&lt;&gt;"",E30*'Brokerage Charges'!$D$4,"")</f>
+        <v>3.1781250000000004E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <f>IF(B30="BUY",E30*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.19068750000000001</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f>IF(B30="SELL",E30*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="10">
+        <f>IF(A30&lt;&gt;"",(F30+G30+H30+I30)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.0076517375000007</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="2"/>
+        <v>26.463071112500003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f>IF(Orders!B29&lt;&gt;"",Orders!B29,"")</f>
+        <v>362250923307802</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>IF(Orders!E29&lt;&gt;"",Orders!E29,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C31" s="10">
+        <f>IF(Orders!L29&lt;&gt;"",Orders!L29,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D31" s="10">
+        <f>IF(Orders!M29&lt;&gt;"",Orders!M29,"")</f>
+        <v>21.4</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>4815</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G31" s="10">
+        <f>IF(A31&lt;&gt;"",E31*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.6866945</v>
+      </c>
+      <c r="H31" s="10">
+        <f>IF(A31&lt;&gt;"",E31*'Brokerage Charges'!$D$3,"")</f>
+        <v>4.8149999999999998E-3</v>
+      </c>
+      <c r="I31" s="10">
+        <f>IF(A31&lt;&gt;"",E31*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.4075000000000003E-2</v>
+      </c>
+      <c r="J31" s="10" t="str">
+        <f>IF(B31="BUY",E31*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="10">
+        <f>IF(B31="SELL",E31*'Brokerage Charges'!$D$6,"")</f>
+        <v>4.8150000000000004</v>
+      </c>
+      <c r="L31" s="10">
+        <f>IF(A31&lt;&gt;"",(F31+G31+H31+I31)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.9088052100000001</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="2"/>
+        <v>30.439389710000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <f>IF(Orders!B30&lt;&gt;"",Orders!B30,"")</f>
+        <v>362250923326702</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>IF(Orders!E30&lt;&gt;"",Orders!E30,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C32" s="10">
+        <f>IF(Orders!L30&lt;&gt;"",Orders!L30,"")</f>
+        <v>375</v>
+      </c>
+      <c r="D32" s="10">
+        <f>IF(Orders!M30&lt;&gt;"",Orders!M30,"")</f>
+        <v>21</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>7875</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="10">
+        <f>IF(A32&lt;&gt;"",E32*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.7586124999999999</v>
+      </c>
+      <c r="H32" s="10">
+        <f>IF(A32&lt;&gt;"",E32*'Brokerage Charges'!$D$3,"")</f>
+        <v>7.8750000000000001E-3</v>
+      </c>
+      <c r="I32" s="10">
+        <f>IF(A32&lt;&gt;"",E32*'Brokerage Charges'!$D$4,"")</f>
+        <v>3.9375E-2</v>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f>IF(B32="BUY",E32*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="10">
+        <f>IF(B32="SELL",E32*'Brokerage Charges'!$D$6,"")</f>
+        <v>7.875</v>
+      </c>
+      <c r="L32" s="10">
+        <f>IF(A32&lt;&gt;"",(F32+G32+H32+I32)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1050552499999995</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="2"/>
+        <v>34.785917749999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <f>IF(Orders!B31&lt;&gt;"",Orders!B31,"")</f>
+        <v>362250923397202</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>IF(Orders!E31&lt;&gt;"",Orders!E31,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C33" s="10">
+        <f>IF(Orders!L31&lt;&gt;"",Orders!L31,"")</f>
+        <v>600</v>
+      </c>
+      <c r="D33" s="10">
+        <f>IF(Orders!M31&lt;&gt;"",Orders!M31,"")</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>9660</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="10">
+        <f>IF(A33&lt;&gt;"",E33*'Brokerage Charges'!$D$2,"")</f>
+        <v>3.3838979999999999</v>
+      </c>
+      <c r="H33" s="10">
+        <f>IF(A33&lt;&gt;"",E33*'Brokerage Charges'!$D$3,"")</f>
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="I33" s="10">
+        <f>IF(A33&lt;&gt;"",E33*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="J33" s="10" t="str">
+        <f>IF(B33="BUY",E33*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="10">
+        <f>IF(B33="SELL",E33*'Brokerage Charges'!$D$6,"")</f>
+        <v>9.66</v>
+      </c>
+      <c r="L33" s="10">
+        <f>IF(A33&lt;&gt;"",(F33+G33+H33+I33)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.2195344399999994</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="2"/>
+        <v>37.321392439999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <f>IF(Orders!B32&lt;&gt;"",Orders!B32,"")</f>
+        <v>362250923601702</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>IF(Orders!E32&lt;&gt;"",Orders!E32,"")</f>
+        <v>BUY</v>
+      </c>
+      <c r="C34" s="10">
+        <f>IF(Orders!L32&lt;&gt;"",Orders!L32,"")</f>
+        <v>225</v>
+      </c>
+      <c r="D34" s="10">
+        <f>IF(Orders!M32&lt;&gt;"",Orders!M32,"")</f>
+        <v>37.85</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>8516.25</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="10">
+        <f>IF(A34&lt;&gt;"",E34*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.9832423750000001</v>
+      </c>
+      <c r="H34" s="10">
+        <f>IF(A34&lt;&gt;"",E34*'Brokerage Charges'!$D$3,"")</f>
+        <v>8.5162499999999995E-3</v>
+      </c>
+      <c r="I34" s="10">
+        <f>IF(A34&lt;&gt;"",E34*'Brokerage Charges'!$D$4,"")</f>
+        <v>4.2581250000000001E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <f>IF(B34="BUY",E34*'Brokerage Charges'!$D$5,"")</f>
+        <v>0.25548750000000003</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f>IF(B34="SELL",E34*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="10">
+        <f>IF(A34&lt;&gt;"",(F34+G34+H34+I34)*'Brokerage Charges'!$D$7,"")</f>
+        <v>4.1461811774999999</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="2"/>
+        <v>27.436008552500002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <f>IF(Orders!B33&lt;&gt;"",Orders!B33,"")</f>
+        <v>362250923601902</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>IF(Orders!E33&lt;&gt;"",Orders!E33,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C35" s="10">
+        <f>IF(Orders!L33&lt;&gt;"",Orders!L33,"")</f>
+        <v>75</v>
+      </c>
+      <c r="D35" s="10">
+        <f>IF(Orders!M33&lt;&gt;"",Orders!M33,"")</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>2977.5</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="10">
+        <f>IF(A35&lt;&gt;"",E35*'Brokerage Charges'!$D$2,"")</f>
+        <v>1.04301825</v>
+      </c>
+      <c r="H35" s="10">
+        <f>IF(A35&lt;&gt;"",E35*'Brokerage Charges'!$D$3,"")</f>
+        <v>2.9774999999999997E-3</v>
+      </c>
+      <c r="I35" s="10">
+        <f>IF(A35&lt;&gt;"",E35*'Brokerage Charges'!$D$4,"")</f>
+        <v>1.4887500000000001E-2</v>
+      </c>
+      <c r="J35" s="10" t="str">
+        <f>IF(B35="BUY",E35*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="10">
+        <f>IF(B35="SELL",E35*'Brokerage Charges'!$D$6,"")</f>
+        <v>2.9775</v>
+      </c>
+      <c r="L35" s="10">
+        <f>IF(A35&lt;&gt;"",(F35+G35+H35+I35)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.7909589849999996</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="2"/>
+        <v>27.829342234999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <f>IF(Orders!B34&lt;&gt;"",Orders!B34,"")</f>
+        <v>362250923601902</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>IF(Orders!E34&lt;&gt;"",Orders!E34,"")</f>
+        <v>SELL</v>
+      </c>
+      <c r="C36" s="10">
+        <f>IF(Orders!L34&lt;&gt;"",Orders!L34,"")</f>
+        <v>150</v>
+      </c>
+      <c r="D36" s="10">
+        <f>IF(Orders!M34&lt;&gt;"",Orders!M34,"")</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>5955</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="10">
+        <f>IF(A36&lt;&gt;"",E36*'Brokerage Charges'!$D$2,"")</f>
+        <v>2.0860365000000001</v>
+      </c>
+      <c r="H36" s="10">
+        <f>IF(A36&lt;&gt;"",E36*'Brokerage Charges'!$D$3,"")</f>
+        <v>5.9549999999999994E-3</v>
+      </c>
+      <c r="I36" s="10">
+        <f>IF(A36&lt;&gt;"",E36*'Brokerage Charges'!$D$4,"")</f>
+        <v>2.9775000000000003E-2</v>
+      </c>
+      <c r="J36" s="10" t="str">
+        <f>IF(B36="BUY",E36*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="10">
+        <f>IF(B36="SELL",E36*'Brokerage Charges'!$D$6,"")</f>
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="L36" s="10">
+        <f>IF(A36&lt;&gt;"",(F36+G36+H36+I36)*'Brokerage Charges'!$D$7,"")</f>
+        <v>3.9819179699999996</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="2"/>
+        <v>32.058684469999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="str">
+        <f>IF(Orders!B35&lt;&gt;"",Orders!B35,"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>IF(Orders!E35&lt;&gt;"",Orders!E35,"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f>IF(Orders!L35&lt;&gt;"",Orders!L35,"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f>IF(Orders!M35&lt;&gt;"",Orders!M35,"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f>IF(A37&lt;&gt;"",E37*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="10" t="str">
+        <f>IF(A37&lt;&gt;"",E37*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f>IF(A37&lt;&gt;"",E37*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="10" t="str">
+        <f>IF(B37="BUY",E37*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="10" t="str">
+        <f>IF(B37="SELL",E37*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f>IF(A37&lt;&gt;"",(F37+G37+H37+I37)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="str">
+        <f>IF(Orders!B36&lt;&gt;"",Orders!B36,"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>IF(Orders!E36&lt;&gt;"",Orders!E36,"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f>IF(Orders!L36&lt;&gt;"",Orders!L36,"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f>IF(Orders!M36&lt;&gt;"",Orders!M36,"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f>IF(A38&lt;&gt;"",E38*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f>IF(A38&lt;&gt;"",E38*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f>IF(A38&lt;&gt;"",E38*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="10" t="str">
+        <f>IF(B38="BUY",E38*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="10" t="str">
+        <f>IF(B38="SELL",E38*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f>IF(A38&lt;&gt;"",(F38+G38+H38+I38)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="str">
+        <f>IF(Orders!B37&lt;&gt;"",Orders!B37,"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="10" t="str">
+        <f>IF(Orders!E37&lt;&gt;"",Orders!E37,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f>IF(Orders!L37&lt;&gt;"",Orders!L37,"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f>IF(Orders!M37&lt;&gt;"",Orders!M37,"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="10" t="str">
+        <f>IF(A39&lt;&gt;"",E39*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f>IF(A39&lt;&gt;"",E39*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f>IF(A39&lt;&gt;"",E39*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="10" t="str">
+        <f>IF(B39="BUY",E39*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="10" t="str">
+        <f>IF(B39="SELL",E39*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f>IF(A39&lt;&gt;"",(F39+G39+H39+I39)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="str">
+        <f>IF(Orders!B38&lt;&gt;"",Orders!B38,"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="10" t="str">
+        <f>IF(Orders!E38&lt;&gt;"",Orders!E38,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f>IF(Orders!L38&lt;&gt;"",Orders!L38,"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f>IF(Orders!M38&lt;&gt;"",Orders!M38,"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="10" t="str">
+        <f>IF(A40&lt;&gt;"",E40*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H40" s="10" t="str">
+        <f>IF(A40&lt;&gt;"",E40*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f>IF(A40&lt;&gt;"",E40*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="10" t="str">
+        <f>IF(B40="BUY",E40*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="10" t="str">
+        <f>IF(B40="SELL",E40*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="10" t="str">
+        <f>IF(A40&lt;&gt;"",(F40+G40+H40+I40)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="str">
+        <f>IF(Orders!B39&lt;&gt;"",Orders!B39,"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f>IF(Orders!E39&lt;&gt;"",Orders!E39,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f>IF(Orders!L39&lt;&gt;"",Orders!L39,"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f>IF(Orders!M39&lt;&gt;"",Orders!M39,"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" s="10" t="str">
+        <f>IF(A41&lt;&gt;"",E41*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H41" s="10" t="str">
+        <f>IF(A41&lt;&gt;"",E41*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f>IF(A41&lt;&gt;"",E41*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="10" t="str">
+        <f>IF(B41="BUY",E41*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="10" t="str">
+        <f>IF(B41="SELL",E41*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="10" t="str">
+        <f>IF(A41&lt;&gt;"",(F41+G41+H41+I41)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="str">
+        <f>IF(Orders!B40&lt;&gt;"",Orders!B40,"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>IF(Orders!E40&lt;&gt;"",Orders!E40,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f>IF(Orders!L40&lt;&gt;"",Orders!L40,"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f>IF(Orders!M40&lt;&gt;"",Orders!M40,"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="10" t="str">
+        <f>IF(A42&lt;&gt;"",E42*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H42" s="10" t="str">
+        <f>IF(A42&lt;&gt;"",E42*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f>IF(A42&lt;&gt;"",E42*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="10" t="str">
+        <f>IF(B42="BUY",E42*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="10" t="str">
+        <f>IF(B42="SELL",E42*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="10" t="str">
+        <f>IF(A42&lt;&gt;"",(F42+G42+H42+I42)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="str">
+        <f>IF(Orders!B41&lt;&gt;"",Orders!B41,"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>IF(Orders!E41&lt;&gt;"",Orders!E41,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>IF(Orders!L41&lt;&gt;"",Orders!L41,"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>IF(Orders!M41&lt;&gt;"",Orders!M41,"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43" s="10" t="str">
+        <f>IF(A43&lt;&gt;"",E43*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="10" t="str">
+        <f>IF(A43&lt;&gt;"",E43*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="10" t="str">
+        <f>IF(A43&lt;&gt;"",E43*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="10" t="str">
+        <f>IF(B43="BUY",E43*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="10" t="str">
+        <f>IF(B43="SELL",E43*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="10" t="str">
+        <f>IF(A43&lt;&gt;"",(F43+G43+H43+I43)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M43" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="str">
+        <f>IF(Orders!B42&lt;&gt;"",Orders!B42,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="10" t="str">
+        <f>IF(Orders!E42&lt;&gt;"",Orders!E42,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f>IF(Orders!L42&lt;&gt;"",Orders!L42,"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="10" t="str">
+        <f>IF(Orders!M42&lt;&gt;"",Orders!M42,"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="10" t="str">
+        <f>IF(A44&lt;&gt;"",E44*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="10" t="str">
+        <f>IF(A44&lt;&gt;"",E44*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="10" t="str">
+        <f>IF(A44&lt;&gt;"",E44*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="10" t="str">
+        <f>IF(B44="BUY",E44*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="10" t="str">
+        <f>IF(B44="SELL",E44*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="10" t="str">
+        <f>IF(A44&lt;&gt;"",(F44+G44+H44+I44)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="str">
+        <f>IF(Orders!B43&lt;&gt;"",Orders!B43,"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="10" t="str">
+        <f>IF(Orders!E43&lt;&gt;"",Orders!E43,"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f>IF(Orders!L43&lt;&gt;"",Orders!L43,"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f>IF(Orders!M43&lt;&gt;"",Orders!M43,"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="10" t="str">
+        <f>IF(A45&lt;&gt;"",E45*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="10" t="str">
+        <f>IF(A45&lt;&gt;"",E45*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="10" t="str">
+        <f>IF(A45&lt;&gt;"",E45*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="10" t="str">
+        <f>IF(B45="BUY",E45*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="10" t="str">
+        <f>IF(B45="SELL",E45*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="10" t="str">
+        <f>IF(A45&lt;&gt;"",(F45+G45+H45+I45)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="str">
+        <f>IF(Orders!B44&lt;&gt;"",Orders!B44,"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="10" t="str">
+        <f>IF(Orders!E44&lt;&gt;"",Orders!E44,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f>IF(Orders!L44&lt;&gt;"",Orders!L44,"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="10" t="str">
+        <f>IF(Orders!M44&lt;&gt;"",Orders!M44,"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="10" t="str">
+        <f>IF(A46&lt;&gt;"",E46*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="10" t="str">
+        <f>IF(A46&lt;&gt;"",E46*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="10" t="str">
+        <f>IF(A46&lt;&gt;"",E46*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="10" t="str">
+        <f>IF(B46="BUY",E46*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="10" t="str">
+        <f>IF(B46="SELL",E46*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="10" t="str">
+        <f>IF(A46&lt;&gt;"",(F46+G46+H46+I46)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="str">
+        <f>IF(Orders!B45&lt;&gt;"",Orders!B45,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="10" t="str">
+        <f>IF(Orders!E45&lt;&gt;"",Orders!E45,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f>IF(Orders!L45&lt;&gt;"",Orders!L45,"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f>IF(Orders!M45&lt;&gt;"",Orders!M45,"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="10" t="str">
+        <f>IF(A47&lt;&gt;"",E47*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="10" t="str">
+        <f>IF(A47&lt;&gt;"",E47*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="10" t="str">
+        <f>IF(A47&lt;&gt;"",E47*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="10" t="str">
+        <f>IF(B47="BUY",E47*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="10" t="str">
+        <f>IF(B47="SELL",E47*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="10" t="str">
+        <f>IF(A47&lt;&gt;"",(F47+G47+H47+I47)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="str">
+        <f>IF(Orders!B46&lt;&gt;"",Orders!B46,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="10" t="str">
+        <f>IF(Orders!E46&lt;&gt;"",Orders!E46,"")</f>
+        <v/>
+      </c>
+      <c r="C48" s="10" t="str">
+        <f>IF(Orders!L46&lt;&gt;"",Orders!L46,"")</f>
+        <v/>
+      </c>
+      <c r="D48" s="10" t="str">
+        <f>IF(Orders!M46&lt;&gt;"",Orders!M46,"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="10" t="str">
+        <f>IF(A48&lt;&gt;"",E48*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="10" t="str">
+        <f>IF(A48&lt;&gt;"",E48*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="10" t="str">
+        <f>IF(A48&lt;&gt;"",E48*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="10" t="str">
+        <f>IF(B48="BUY",E48*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="10" t="str">
+        <f>IF(B48="SELL",E48*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="10" t="str">
+        <f>IF(A48&lt;&gt;"",(F48+G48+H48+I48)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="str">
+        <f>IF(Orders!B47&lt;&gt;"",Orders!B47,"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="10" t="str">
+        <f>IF(Orders!E47&lt;&gt;"",Orders!E47,"")</f>
+        <v/>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f>IF(Orders!L47&lt;&gt;"",Orders!L47,"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="10" t="str">
+        <f>IF(Orders!M47&lt;&gt;"",Orders!M47,"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="10" t="str">
+        <f>IF(A49&lt;&gt;"",E49*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H49" s="10" t="str">
+        <f>IF(A49&lt;&gt;"",E49*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="10" t="str">
+        <f>IF(A49&lt;&gt;"",E49*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="10" t="str">
+        <f>IF(B49="BUY",E49*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="10" t="str">
+        <f>IF(B49="SELL",E49*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="10" t="str">
+        <f>IF(A49&lt;&gt;"",(F49+G49+H49+I49)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="str">
+        <f>IF(Orders!B48&lt;&gt;"",Orders!B48,"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="10" t="str">
+        <f>IF(Orders!E48&lt;&gt;"",Orders!E48,"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="10" t="str">
+        <f>IF(Orders!L48&lt;&gt;"",Orders!L48,"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="10" t="str">
+        <f>IF(Orders!M48&lt;&gt;"",Orders!M48,"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="10" t="str">
+        <f>IF(A50&lt;&gt;"",E50*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="10" t="str">
+        <f>IF(A50&lt;&gt;"",E50*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="10" t="str">
+        <f>IF(A50&lt;&gt;"",E50*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="10" t="str">
+        <f>IF(B50="BUY",E50*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="10" t="str">
+        <f>IF(B50="SELL",E50*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="10" t="str">
+        <f>IF(A50&lt;&gt;"",(F50+G50+H50+I50)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M50" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="str">
+        <f>IF(Orders!B49&lt;&gt;"",Orders!B49,"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="10" t="str">
+        <f>IF(Orders!E49&lt;&gt;"",Orders!E49,"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f>IF(Orders!L49&lt;&gt;"",Orders!L49,"")</f>
+        <v/>
+      </c>
+      <c r="D51" s="10" t="str">
+        <f>IF(Orders!M49&lt;&gt;"",Orders!M49,"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="10" t="str">
+        <f>IF(A51&lt;&gt;"",E51*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H51" s="10" t="str">
+        <f>IF(A51&lt;&gt;"",E51*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="10" t="str">
+        <f>IF(A51&lt;&gt;"",E51*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="10" t="str">
+        <f>IF(B51="BUY",E51*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="10" t="str">
+        <f>IF(B51="SELL",E51*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L51" s="10" t="str">
+        <f>IF(A51&lt;&gt;"",(F51+G51+H51+I51)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M51" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="str">
+        <f>IF(Orders!B50&lt;&gt;"",Orders!B50,"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="10" t="str">
+        <f>IF(Orders!E50&lt;&gt;"",Orders!E50,"")</f>
+        <v/>
+      </c>
+      <c r="C52" s="10" t="str">
+        <f>IF(Orders!L50&lt;&gt;"",Orders!L50,"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="10" t="str">
+        <f>IF(Orders!M50&lt;&gt;"",Orders!M50,"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="10" t="str">
+        <f>IF(A52&lt;&gt;"",E52*'Brokerage Charges'!$D$2,"")</f>
+        <v/>
+      </c>
+      <c r="H52" s="10" t="str">
+        <f>IF(A52&lt;&gt;"",E52*'Brokerage Charges'!$D$3,"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="10" t="str">
+        <f>IF(A52&lt;&gt;"",E52*'Brokerage Charges'!$D$4,"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="10" t="str">
+        <f>IF(B52="BUY",E52*'Brokerage Charges'!$D$5,"")</f>
+        <v/>
+      </c>
+      <c r="K52" s="10" t="str">
+        <f>IF(B52="SELL",E52*'Brokerage Charges'!$D$6,"")</f>
+        <v/>
+      </c>
+      <c r="L52" s="10" t="str">
+        <f>IF(A52&lt;&gt;"",(F52+G52+H52+I52)*'Brokerage Charges'!$D$7,"")</f>
+        <v/>
+      </c>
+      <c r="M52" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="13"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="13"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="13"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="13"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="13"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="13"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="13"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="13"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="13"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="13"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="13"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="13"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="13"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="13"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="13"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="13"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="13"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="13"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="13"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="13"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="13"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="13"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="13"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="13"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="13"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="13"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="13"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="13"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="13"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="13"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="13"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="13"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="13"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="13"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="13"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="13"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="13"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="13"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="13"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="13"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="13"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="13"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="13"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="13"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="13"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="13"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="13"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="13"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="13"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="13"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="13"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="13"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="13"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="13"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="13"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="13"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="13"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="13"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="13"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="13"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="13"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="13"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="13"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="13"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="13"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="13"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="13"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="13"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="13"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="13"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="13"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="13"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="13"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="13"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="13"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="13"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="13"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="13"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="13"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="13"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="13"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="13"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="13"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="13"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="13"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="13"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="13"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="13"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="13"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="13"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="13"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="13"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="13"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="13"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="13"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="13"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="13"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="13"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="13"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="13"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="13"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="13"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="13"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="13"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="13"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="13"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="13"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="13"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="13"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="13"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="13"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="13"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="13"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="13"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="13"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="13"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="13"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="13"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="13"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="13"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="13"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="13"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="13"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="13"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="13"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="13"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="13"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="13"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="13"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="13"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="13"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="13"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="13"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="13"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="13"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="13"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="13"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="13"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="13"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="13"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="13"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="13"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="13"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="13"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="13"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="13"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="13"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="13"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="13"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="13"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="13"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="13"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="13"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B735C-09A0-4B72-A3E4-D05F79230EF2}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D2" s="25">
+        <v>3.503E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D3" s="25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>